--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F94D6A7F-FFE8-A54F-8120-5B915CAC7E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D22513-BF4F-D047-A4C8-2C743E9750DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$44</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
   <si>
     <t>file_name</t>
   </si>
@@ -265,13 +268,79 @@
   </si>
   <si>
     <t>https://gaftp.epa.gov/Air/emismod/2005/2005v4_2/2005emis/2005cr_05b_orl_onroad_part2.zip</t>
+  </si>
+  <si>
+    <t>NEI</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2020/data_summaries/2020nei_onroad_byregion.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2017/data_summaries/2017v1/2017neiApr_onroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2017/data_summaries/2017v1/2017neiApr_nonroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>2017neiApr</t>
+  </si>
+  <si>
+    <t>2020nei</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2020/data_summaries/2020nei_nonroad_byregion.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/nonroad_inventory_2021hb_24may2024.zip</t>
+  </si>
+  <si>
+    <t>2021hb</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/onroad_emissions_SMOKE-MOVES_FF10_2022hc_17jul2024.zip</t>
+  </si>
+  <si>
+    <t>2022hc</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/nonroad_inventory_2022hc_17jul2024.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/onroad_emissions_SMOKE-MOVES_FF10_2021hb_26mar2024.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2014/data_summaries/2014v2/2014neiv2_onroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>2014neiv2</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2014/data_summaries/2014v2/2014neiv2_nonroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2011/data_summaries/2011v2/2011neiv2_onroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>2011neiv2</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2011/data_summaries/2011v2/2011neiv2_nonroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2008/data_summaries/2008neiv3_onroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>2008neiv3</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2008/data_summaries/2008neiv3_nonroad_byregions.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,6 +358,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -316,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,6 +401,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -661,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,84 +784,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -799,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -819,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -830,208 +913,211 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>2014</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>2011</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
         <v>2005</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
         <v>2005</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
         <v>2008</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H17" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>2002</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2001</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2020</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>2013</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,19 +1125,19 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1059,19 +1145,19 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1079,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -1088,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1099,24 +1185,24 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1124,16 +1210,19 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -1141,8 +1230,11 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>42</v>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1150,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -1159,13 +1251,13 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1173,56 +1265,47 @@
         <v>2015</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1230,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -1239,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1250,19 +1333,19 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1270,47 +1353,44 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>2005</v>
@@ -1319,62 +1399,53 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1382,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="B35">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -1391,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1405,28 +1476,322 @@
         <v>6</v>
       </c>
       <c r="B36">
+        <v>2005</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2008</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2011</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>2014</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
         <v>2017</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H40" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42">
+        <v>2017</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>2014</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>2011</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>2008</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <v>2017</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>2014</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49">
+        <v>2011</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>2008</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H44" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}"/>
   <hyperlinks>
-    <hyperlink ref="H29" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
-    <hyperlink ref="H15" r:id="rId2" xr:uid="{23C5B452-3060-6041-9EC8-8BBAE400F8F5}"/>
+    <hyperlink ref="H33" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{23C5B452-3060-6041-9EC8-8BBAE400F8F5}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D22513-BF4F-D047-A4C8-2C743E9750DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA0167-2457-5A42-9D02-C6A223CD691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="base url" sheetId="5" r:id="rId2"/>
+    <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$H$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="198">
   <si>
     <t>file_name</t>
   </si>
@@ -168,18 +169,12 @@
     <t>2014fd_cb6_14j</t>
   </si>
   <si>
-    <t>Not available</t>
-  </si>
-  <si>
     <t>2019ge_cb6_19k</t>
   </si>
   <si>
     <t>2018gg_18j</t>
   </si>
   <si>
-    <t>2018gc_cb6_18j</t>
-  </si>
-  <si>
     <t>2016gf_16j</t>
   </si>
   <si>
@@ -264,9 +259,6 @@
     <t>https://gaftp.epa.gov/Air/emismod/2005/2005v4_2/2005emis/2005cr_05b_orl_onroad_part1.zip</t>
   </si>
   <si>
-    <t>2005cr_05b_orl</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2005/2005v4_2/2005emis/2005cr_05b_orl_onroad_part2.zip</t>
   </si>
   <si>
@@ -334,13 +326,322 @@
   </si>
   <si>
     <t>https://gaftp.epa.gov/air/nei/2008/data_summaries/2008neiv3_nonroad_byregions.zip</t>
+  </si>
+  <si>
+    <t>2014fd</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2014/v2/2014fd/emissions/2014fd_inputs_onroad.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2014/v2/2014fd/emissions/2014fd_inputs_nonroad.zip</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2011/v3platform/2011emissions/2011ek_cb6v2_v6_11g_inputs_nonroad_part2.zip</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2011/v3platform/2011emissions/2011ek_cb6v2_v6_11g_inputs_nonroad_part1.zip</t>
+  </si>
+  <si>
+    <t>2011ek_cb6v2_v6_11g</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2016/v3/2016emissions/2016gf_onroad_activity_15dec2022.zip</t>
+  </si>
+  <si>
+    <t>2016gf</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2014/doc/2014v2_supportingdata/onroad/2014v2_onroad_activity_final.zip</t>
+  </si>
+  <si>
+    <t>2014v2</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2014/doc/2014v2_supportingdata/nonroad/2014v1_NonroadCDBs.zip</t>
+  </si>
+  <si>
+    <t>2014v1</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2014/doc/2014v2_supportingdata/nonroad/NonroadCDBs_2014v2_DE_GA_NC_20170824.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2017/doc/supporting_data/onroad/2017NEI_onroad_activity_final.zip</t>
+  </si>
+  <si>
+    <t>2017NEI</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2017/doc/supporting_data/nonroad/2017_NonroadCDBs.zip</t>
+  </si>
+  <si>
+    <t>2017_Nonroad</t>
+  </si>
+  <si>
+    <t>activity CDBs</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2020/doc/supporting_data/onroad/2020NEI_onroad_activity_final_20230112.zip</t>
+  </si>
+  <si>
+    <t>2020NEI</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2020/doc/supporting_data/nonroad/Inputs/2020_NonroadCDBs.zip</t>
+  </si>
+  <si>
+    <t>2020_Nonroad</t>
+  </si>
+  <si>
+    <t>2011NEIv2</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2011/doc/2011v2_supportingdata/onroad/MOVES_CDBs_by_state/2011NEIv2_MOVES2014_CDBs_state27.zip</t>
+  </si>
+  <si>
+    <t>State 27</t>
+  </si>
+  <si>
+    <t>State 55</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2011/doc/2011v2_supportingdata/onroad/MOVES_CDBs_by_state/2011NEIv2_MOVES2014_CDBs_state55.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2011/doc/2011v2_supportingdata/nonroad/2011neiv2_supdata_nonroad.7z</t>
+  </si>
+  <si>
+    <t>supporting data</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2008/doc/2008v3_supportingdata/2008nei_supdata_4a.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2008/doc/2008v3_supportingdata/2008nei_supdata_4b.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2008/doc/2008v3_supportingdata/2008nei_supdata_4c.zip</t>
+  </si>
+  <si>
+    <t>2008NEI</t>
+  </si>
+  <si>
+    <t>Section 4a</t>
+  </si>
+  <si>
+    <t>Section 4b</t>
+  </si>
+  <si>
+    <t>Section 4c</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2019/2019emissions/2019ge_onroad_activity_10mar2023.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2019/2019emissions/MOVES_CDBs_2019_20211020.zip</t>
+  </si>
+  <si>
+    <t>2019ge</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2020/2020emissions/2020ha2_onroad_activity_22sep2023.zip</t>
+  </si>
+  <si>
+    <t>2020ha</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/onroad_activity_2021hb_24may2024.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/CDBs_2021_20240205.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/onroad_activity_SMOKE-MOVES_FF10_2022hc_17jul2024.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/CDBs_2022_20240214.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2016/v3/2016emissions/2016v3_CDBs_MOVES3_v2WithST62AgeDistUpdate_20220606.zip</t>
+  </si>
+  <si>
+    <t>2016v3</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2018/v1/2018emissions/MOVES_CDBs_2018_20210115.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2018/v1/2018emissions/2018gc_inventory_onroad_activity_08oct2021.zip</t>
+  </si>
+  <si>
+    <t>2018gc</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2017/2017emissions/2017gb_inventory_onroad_activity_29jun2020.zip</t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2017/2017gb_package_12jul2021_info.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2018/v1/2018gc_package_info_11oct2021.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2018/v2/info_2018gg_2032gg2_platform_package_28jul2023.txt</t>
+  </si>
+  <si>
+    <t>2018gg</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2019/info_2019ge_platform_package_16mar2023.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2020/info_2020ha2_package_22sep2023.txt</t>
+  </si>
+  <si>
+    <t>2020ha2</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2021/info_2021hb_package_24may2024.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/info_2022hc_package_prelim_version_10aug2024.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2001/2001emis/readme_2001emis.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2002/2002v3CAP_info.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2005/2005v4_2/2005v4_2platform_info.txt</t>
+  </si>
+  <si>
+    <t>2005v4</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2008/2008_package_info.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2011/v3platform/2011en_2023en_package_info.txt</t>
+  </si>
+  <si>
+    <t>2011en</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2015/alpha/2015fd/emissions/2015fd_activity.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2015/alpha/2014_2015_2016_v7.1_platform_package_info.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2016/v3/info_2016_v3_platform_package_with_2026gf_22may2023.txt</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>EQUATES is only for onroad, years 2002, 2005, 2008, 2011, 2014, and 2017 (NEI years)</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/default/files/2015-07/documents/2008_neiv3_tsd_draft.pdf</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>tsd</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/default/files/2015-10/documents/nei2011v2_tsd_14aug2015.pdf</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/default/files/2018-07/documents/nei2014v2_tsd_05jul2018.pdf</t>
+  </si>
+  <si>
+    <t>nei2011v2</t>
+  </si>
+  <si>
+    <t>nei2014v2</t>
+  </si>
+  <si>
+    <t>2008_neiv3</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/default/files/2021-02/documents/nei2017_tsd_full_jan2021.pdf</t>
+  </si>
+  <si>
+    <t>nei2017</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/air-emissions-inventories/2020-national-emissions-inventory-nei-technical-support-document-tsd</t>
+  </si>
+  <si>
+    <t>Air emissions modeling data are NOT available for years 2003, 2004, 2006, 2009, 2010, 2012, 2013</t>
+  </si>
+  <si>
+    <t>Ready-available NEI years are 2011, 2014, 2017, 2020. 2008 and prior use old SCCs and may not have GHGs. For onroad, use EQUATES</t>
+  </si>
+  <si>
+    <t>base url</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/</t>
+  </si>
+  <si>
+    <t>All items in air emissions modeling site is indexed in https://gaftp.epa.gov/Air/emismod/air_emismod.csv</t>
+  </si>
+  <si>
+    <t>2001v2CAP_ida</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2014/v2/2014fd/emissions/by_sector/2014fd_nonroad.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2019/2019emissions/2019ge_nonroad_inventory_10mar2023.zip</t>
+  </si>
+  <si>
+    <t>Folder exists; data not found</t>
+  </si>
+  <si>
+    <t>2005v4_2/2005cr_05b_orl</t>
+  </si>
+  <si>
+    <t>Generic "activity"</t>
+  </si>
+  <si>
+    <t>2018v1/2018gc</t>
+  </si>
+  <si>
+    <t>2018v2/2018gc_cb6_18j</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,13 +670,32 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE49EDD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7C7AC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -405,12 +725,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -740,20 +1182,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:H50"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="115.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -766,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -784,156 +1227,149 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -941,11 +1377,8 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,231 +1386,200 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
+        <v>2003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
         <v>2005</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2005</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>2008</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>2002</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>2001</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1185,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -1194,226 +1596,229 @@
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>194</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28">
+        <v>2006</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2007</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30">
         <v>2008</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>2015</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>2015</v>
-      </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>131</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -1421,108 +1826,102 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B36">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>2008</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -1530,208 +1929,184 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" t="s">
-        <v>25</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>2008</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>2008</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
-        <v>2014</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>2017</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
       <c r="B41">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B44">
+        <v>2009</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>2010</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>2009</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>2010</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
         <v>2011</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45">
-        <v>2008</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>96</v>
-      </c>
-      <c r="H45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46">
-        <v>2017</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47">
-        <v>2020</v>
-      </c>
-      <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48">
-        <v>2014</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1740,15 +2115,18 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>2011</v>
@@ -1760,18 +2138,21 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B50">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -1780,31 +2161,1851 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>2011</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>2009</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>2010</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>2011</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>2011</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>2011</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57">
+        <v>2011</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>2011</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>2011</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>2011</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>2011</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>2011</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" t="s">
+        <v>177</v>
+      </c>
+      <c r="H62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>2012</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>2012</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>2013</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>2012</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>2012</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>2013</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>2013</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2013</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>2014</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2014</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>2014</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <v>2014</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>2014</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>95</v>
+      </c>
+      <c r="H78" t="s">
         <v>96</v>
       </c>
-      <c r="H50" t="s">
-        <v>97</v>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <v>2014</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <v>2014</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>2014</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>2014</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>2014</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84">
+        <v>2014</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>2015</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>2015</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>2015</v>
+      </c>
+      <c r="C87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>2015</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>2015</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>2015</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" t="s">
+        <v>150</v>
+      </c>
+      <c r="H90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>2016</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>2016</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>2016</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>105</v>
+      </c>
+      <c r="H93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>2016</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>2016</v>
+      </c>
+      <c r="C95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" t="s">
+        <v>150</v>
+      </c>
+      <c r="H95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96">
+        <v>2017</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>114</v>
+      </c>
+      <c r="H96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>2017</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>2017</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99">
+        <v>2017</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>2017</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101">
+        <v>2017</v>
+      </c>
+      <c r="C101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>2017</v>
+      </c>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>2017</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>27</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104">
+        <v>2017</v>
+      </c>
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>2017</v>
+      </c>
+      <c r="C105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" t="s">
+        <v>150</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106">
+        <v>2017</v>
+      </c>
+      <c r="C106" t="s">
+        <v>173</v>
+      </c>
+      <c r="D106" t="s">
+        <v>174</v>
+      </c>
+      <c r="F106" t="s">
+        <v>181</v>
+      </c>
+      <c r="H106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>2018</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>2018</v>
+      </c>
+      <c r="C108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>2018</v>
+      </c>
+      <c r="C109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>196</v>
+      </c>
+      <c r="H109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>2018</v>
+      </c>
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>197</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>2018</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" t="s">
+        <v>148</v>
+      </c>
+      <c r="H111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>2018</v>
+      </c>
+      <c r="C112" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112" t="s">
+        <v>154</v>
+      </c>
+      <c r="H112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>2019</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>2019</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>137</v>
+      </c>
+      <c r="H114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>2019</v>
+      </c>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>2019</v>
+      </c>
+      <c r="C116" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" t="s">
+        <v>150</v>
+      </c>
+      <c r="F116" t="s">
+        <v>137</v>
+      </c>
+      <c r="H116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>2019</v>
+      </c>
+      <c r="C117" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" t="s">
+        <v>137</v>
+      </c>
+      <c r="H117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>2020</v>
+      </c>
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119">
+        <v>2020</v>
+      </c>
+      <c r="C119" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" t="s">
+        <v>119</v>
+      </c>
+      <c r="H119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>2020</v>
+      </c>
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121">
+        <v>2020</v>
+      </c>
+      <c r="C121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>78</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>2020</v>
+      </c>
+      <c r="C122" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>139</v>
+      </c>
+      <c r="H122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123">
+        <v>2020</v>
+      </c>
+      <c r="C123" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>117</v>
+      </c>
+      <c r="H123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>2020</v>
+      </c>
+      <c r="C124" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125">
+        <v>2020</v>
+      </c>
+      <c r="C125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>2020</v>
+      </c>
+      <c r="C126" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" t="s">
+        <v>150</v>
+      </c>
+      <c r="F126" t="s">
+        <v>157</v>
+      </c>
+      <c r="H126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127">
+        <v>2020</v>
+      </c>
+      <c r="C127" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" t="s">
+        <v>174</v>
+      </c>
+      <c r="H127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>2021</v>
+      </c>
+      <c r="C128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" t="s">
+        <v>81</v>
+      </c>
+      <c r="H129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>2021</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>2021</v>
+      </c>
+      <c r="C132" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" t="s">
+        <v>150</v>
+      </c>
+      <c r="F132" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>2022</v>
+      </c>
+      <c r="C133" t="s">
+        <v>115</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>2022</v>
+      </c>
+      <c r="C135" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>2022</v>
+      </c>
+      <c r="C137" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}"/>
+  <autoFilter ref="A1:H137" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="mobile"/>
+        <filter val="onroad"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H136">
+      <sortCondition ref="B1:B137"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H137">
+    <sortCondition ref="A2:A137"/>
+    <sortCondition ref="D2:D137"/>
+    <sortCondition ref="C2:C137"/>
+  </sortState>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"tsd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"readme"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"mobile"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"nonroad"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"onroad"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H33" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
-    <hyperlink ref="H19" r:id="rId2" xr:uid="{23C5B452-3060-6041-9EC8-8BBAE400F8F5}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
+    <hyperlink ref="H124" r:id="rId2" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
+    <hyperlink ref="H75" r:id="rId3" xr:uid="{C2E4A6B9-5621-B549-B57E-A831E5A80B44}"/>
+    <hyperlink ref="H49" r:id="rId4" xr:uid="{81E6D9E0-9F41-C14E-A9FE-A54BD14CE8DE}"/>
+    <hyperlink ref="H36" r:id="rId5" xr:uid="{73D76BFE-3329-E24F-BF51-6DE2D7EABDC5}"/>
+    <hyperlink ref="H37" r:id="rId6" xr:uid="{7CD351E3-780B-E34B-A618-1555BF35832E}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{3B0CDB0E-607B-374B-9692-9E56E9B957D9}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3505FA-3FC8-254C-98A6-5197B7B1ED2D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D232C1-B777-0648-8306-8752ED74FD38}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD660B9-EDB1-794A-9EA6-28DC0455076C}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA0167-2457-5A42-9D02-C6A223CD691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C94C37-8069-664B-98F1-295F6EB6DB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="205">
   <si>
     <t>file_name</t>
   </si>
@@ -635,6 +635,27 @@
   </si>
   <si>
     <t>2018v2/2018gc_cb6_18j</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/other_inputs/2002repCDBs_20201028.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/other_inputs/2005repCDBs_20201028.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/other_inputs/2008repCDBs_20201016.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/other_inputs/2011repCDBs_20201016.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/other_inputs/2014repCDBs_20201027.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/2017/2017repCDBs_20201209.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/MOVES3/2017/EQUATES_2017_inventory_onroad_activity_11jan2021.zip</t>
   </si>
 </sst>
 </file>
@@ -711,15 +732,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,6 +749,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1183,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A109" sqref="A1:H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,11 +1219,11 @@
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" style="12" customWidth="1"/>
     <col min="8" max="8" width="115.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1220,34 +1242,34 @@
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
         <v>2001</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1265,50 +1287,49 @@
         <v>68</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
         <v>2001</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1323,6 +1344,7 @@
       <c r="D6" t="s">
         <v>150</v>
       </c>
+      <c r="G6" s="1"/>
       <c r="H6" t="s">
         <v>160</v>
       </c>
@@ -1360,16 +1382,17 @@
       <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1377,7 +1400,7 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1386,79 +1409,71 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="G10" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1473,6 +1488,7 @@
       <c r="D14" t="s">
         <v>150</v>
       </c>
+      <c r="G14" s="1"/>
       <c r="H14" t="s">
         <v>161</v>
       </c>
@@ -1578,16 +1594,17 @@
       <c r="F20" t="s">
         <v>64</v>
       </c>
+      <c r="G20" s="1"/>
       <c r="H20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -1595,77 +1612,74 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -1684,6 +1698,7 @@
       <c r="F25" t="s">
         <v>163</v>
       </c>
+      <c r="G25" s="1"/>
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -1722,61 +1737,64 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
@@ -1846,6 +1864,7 @@
       <c r="F34" t="s">
         <v>61</v>
       </c>
+      <c r="G34" s="1"/>
       <c r="H34" t="s">
         <v>62</v>
       </c>
@@ -1866,62 +1885,57 @@
       <c r="F35" t="s">
         <v>93</v>
       </c>
+      <c r="G35" s="1"/>
       <c r="H35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="H36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -1929,16 +1943,19 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>193</v>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
@@ -1946,11 +1963,13 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" t="s">
-        <v>92</v>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1958,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -1967,18 +1986,18 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,15 +2005,10 @@
       <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
-        <v>32</v>
-      </c>
+      <c r="G41" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2009,6 +2023,7 @@
       <c r="D42" t="s">
         <v>150</v>
       </c>
+      <c r="G42" s="1"/>
       <c r="H42" t="s">
         <v>164</v>
       </c>
@@ -2029,6 +2044,7 @@
       <c r="F43" t="s">
         <v>179</v>
       </c>
+      <c r="G43" s="1"/>
       <c r="H43" t="s">
         <v>172</v>
       </c>
@@ -2120,7 +2136,7 @@
       <c r="G48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2143,7 +2159,7 @@
       <c r="G49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2163,6 +2179,7 @@
       <c r="F50" t="s">
         <v>120</v>
       </c>
+      <c r="G50" s="1"/>
       <c r="H50" t="s">
         <v>125</v>
       </c>
@@ -2183,16 +2200,17 @@
       <c r="F51" t="s">
         <v>90</v>
       </c>
+      <c r="G51" s="1"/>
       <c r="H51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C52" t="s">
         <v>48</v>
@@ -2200,16 +2218,17 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C53" t="s">
         <v>48</v>
@@ -2217,54 +2236,54 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="F53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>2005</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>2006</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54">
-        <v>2011</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55">
-        <v>2011</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2272,27 +2291,24 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" t="s">
-        <v>54</v>
+      <c r="G56" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
@@ -2301,18 +2317,18 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C58" t="s">
         <v>48</v>
@@ -2320,22 +2336,16 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G58" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
@@ -2343,19 +2353,13 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="F59" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="G59" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>2011</v>
@@ -2367,13 +2371,13 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2392,6 +2396,7 @@
       <c r="F61" t="s">
         <v>166</v>
       </c>
+      <c r="G61" s="1"/>
       <c r="H61" t="s">
         <v>165</v>
       </c>
@@ -2412,6 +2417,7 @@
       <c r="F62" t="s">
         <v>177</v>
       </c>
+      <c r="G62" s="1"/>
       <c r="H62" t="s">
         <v>175</v>
       </c>
@@ -2468,24 +2474,24 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="5">
+      <c r="A66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4">
         <v>2013</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6" t="s">
+      <c r="D66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -2504,24 +2510,30 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2534,11 +2546,11 @@
       <c r="D69" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2546,21 +2558,21 @@
         <v>2013</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
@@ -2568,8 +2580,11 @@
       <c r="D71" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>98</v>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
@@ -2605,6 +2620,7 @@
       <c r="F73" t="s">
         <v>109</v>
       </c>
+      <c r="G73" s="1"/>
       <c r="H73" t="s">
         <v>108</v>
       </c>
@@ -2625,27 +2641,29 @@
       <c r="F74" t="s">
         <v>107</v>
       </c>
+      <c r="G74" s="1"/>
       <c r="H74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="5">
+      <c r="A75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="4">
         <v>2014</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="D75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="G75" s="1"/>
+      <c r="H75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2662,10 +2680,11 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="G76" s="1"/>
+      <c r="H76" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2685,6 +2704,7 @@
       <c r="F77" t="s">
         <v>87</v>
       </c>
+      <c r="G77" s="1"/>
       <c r="H77" t="s">
         <v>88</v>
       </c>
@@ -2694,47 +2714,47 @@
         <v>7</v>
       </c>
       <c r="B78">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -2743,10 +2763,10 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2754,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
@@ -2763,18 +2783,18 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="H81" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
@@ -2783,13 +2803,10 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
@@ -2825,6 +2842,7 @@
       <c r="F84" t="s">
         <v>178</v>
       </c>
+      <c r="G84" s="1"/>
       <c r="H84" t="s">
         <v>176</v>
       </c>
@@ -2845,6 +2863,7 @@
       <c r="F85" t="s">
         <v>38</v>
       </c>
+      <c r="G85" s="1"/>
       <c r="H85" t="s">
         <v>49</v>
       </c>
@@ -2865,69 +2884,70 @@
       <c r="G86" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H86" s="4"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
-      </c>
-      <c r="H87" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88">
-        <v>2015</v>
-      </c>
-      <c r="C88" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H88" t="s">
-        <v>167</v>
+        <v>37</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89">
-        <v>2015</v>
-      </c>
-      <c r="C89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" t="s">
-        <v>39</v>
+      <c r="A89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2943,6 +2963,7 @@
       <c r="D90" t="s">
         <v>150</v>
       </c>
+      <c r="G90" s="1"/>
       <c r="H90" t="s">
         <v>168</v>
       </c>
@@ -2963,6 +2984,7 @@
       <c r="F91" t="s">
         <v>145</v>
       </c>
+      <c r="G91" s="1"/>
       <c r="H91" t="s">
         <v>144</v>
       </c>
@@ -2983,48 +3005,43 @@
       <c r="F92" t="s">
         <v>105</v>
       </c>
+      <c r="G92" s="1"/>
       <c r="H92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93">
-        <v>2016</v>
-      </c>
-      <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>105</v>
+      <c r="A93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H93" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94">
-        <v>2016</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>44</v>
+      <c r="A94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3040,6 +3057,7 @@
       <c r="D95" t="s">
         <v>150</v>
       </c>
+      <c r="G95" s="1"/>
       <c r="H95" t="s">
         <v>169</v>
       </c>
@@ -3060,6 +3078,7 @@
       <c r="F96" t="s">
         <v>114</v>
       </c>
+      <c r="G96" s="1"/>
       <c r="H96" t="s">
         <v>113</v>
       </c>
@@ -3097,6 +3116,7 @@
       <c r="F98" t="s">
         <v>45</v>
       </c>
+      <c r="G98" s="1"/>
       <c r="H98" t="s">
         <v>47</v>
       </c>
@@ -3117,111 +3137,94 @@
       <c r="F99" t="s">
         <v>77</v>
       </c>
+      <c r="G99" s="1"/>
       <c r="H99" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100">
+      <c r="A100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="4">
         <v>2017</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C103" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101">
-        <v>2017</v>
-      </c>
-      <c r="C101" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102">
-        <v>2017</v>
-      </c>
-      <c r="C102" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103">
-        <v>2017</v>
-      </c>
-      <c r="C103" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104">
-        <v>2017</v>
-      </c>
-      <c r="C104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>77</v>
+      <c r="D104" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3240,6 +3243,7 @@
       <c r="F105" t="s">
         <v>14</v>
       </c>
+      <c r="G105" s="1"/>
       <c r="H105" t="s">
         <v>151</v>
       </c>
@@ -3260,6 +3264,7 @@
       <c r="F106" t="s">
         <v>181</v>
       </c>
+      <c r="G106" s="1"/>
       <c r="H106" t="s">
         <v>180</v>
       </c>
@@ -3277,6 +3282,7 @@
       <c r="D107" t="s">
         <v>16</v>
       </c>
+      <c r="G107" s="1"/>
       <c r="H107" t="s">
         <v>146</v>
       </c>
@@ -3297,36 +3303,40 @@
       <c r="F108" t="s">
         <v>43</v>
       </c>
+      <c r="G108" s="1"/>
       <c r="H108" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B109">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>196</v>
-      </c>
-      <c r="H109" t="s">
-        <v>147</v>
+        <v>19</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="C110" t="s">
         <v>48</v>
@@ -3335,10 +3345,13 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>197</v>
-      </c>
-      <c r="H110" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3357,6 +3370,7 @@
       <c r="F111" t="s">
         <v>148</v>
       </c>
+      <c r="G111" s="1"/>
       <c r="H111" t="s">
         <v>152</v>
       </c>
@@ -3377,6 +3391,7 @@
       <c r="F112" t="s">
         <v>154</v>
       </c>
+      <c r="G112" s="1"/>
       <c r="H112" t="s">
         <v>153</v>
       </c>
@@ -3394,36 +3409,40 @@
       <c r="D113" t="s">
         <v>16</v>
       </c>
+      <c r="G113" s="1"/>
       <c r="H113" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
+        <v>24</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B115">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="C115" t="s">
         <v>48</v>
@@ -3432,10 +3451,13 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3454,6 +3476,7 @@
       <c r="F116" t="s">
         <v>137</v>
       </c>
+      <c r="G116" s="1"/>
       <c r="H116" t="s">
         <v>155</v>
       </c>
@@ -3474,6 +3497,7 @@
       <c r="F117" t="s">
         <v>137</v>
       </c>
+      <c r="G117" s="1"/>
       <c r="H117" t="s">
         <v>192</v>
       </c>
@@ -3511,6 +3535,7 @@
       <c r="F119" t="s">
         <v>119</v>
       </c>
+      <c r="G119" s="1"/>
       <c r="H119" t="s">
         <v>118</v>
       </c>
@@ -3531,6 +3556,7 @@
       <c r="F120" t="s">
         <v>37</v>
       </c>
+      <c r="G120" s="1"/>
       <c r="H120" t="s">
         <v>36</v>
       </c>
@@ -3551,68 +3577,78 @@
       <c r="F121" t="s">
         <v>78</v>
       </c>
+      <c r="G121" s="1"/>
       <c r="H121" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>26</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B123">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>117</v>
+        <v>27</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H123" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B124">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>9</v>
+        <v>131</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,19 +3656,22 @@
         <v>73</v>
       </c>
       <c r="B125">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C125" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F125" t="s">
-        <v>78</v>
-      </c>
-      <c r="H125" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3651,6 +3690,7 @@
       <c r="F126" t="s">
         <v>157</v>
       </c>
+      <c r="G126" s="1"/>
       <c r="H126" t="s">
         <v>156</v>
       </c>
@@ -3668,6 +3708,7 @@
       <c r="D127" t="s">
         <v>174</v>
       </c>
+      <c r="G127" s="1"/>
       <c r="H127" t="s">
         <v>182</v>
       </c>
@@ -3685,70 +3726,76 @@
       <c r="D128" t="s">
         <v>16</v>
       </c>
+      <c r="G128" s="1"/>
       <c r="H128" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="5">
+      <c r="A129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="4">
         <v>2021</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D129" s="5" t="s">
+      <c r="C129" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F129" t="s">
         <v>81</v>
       </c>
+      <c r="G129" s="1"/>
       <c r="H129" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B130">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F130" t="s">
-        <v>81</v>
-      </c>
-      <c r="H130" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="5" t="s">
-        <v>85</v>
+      <c r="A131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131">
+        <v>2011</v>
+      </c>
+      <c r="C131" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>120</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H131" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3767,6 +3814,7 @@
       <c r="F132" t="s">
         <v>81</v>
       </c>
+      <c r="G132" s="1"/>
       <c r="H132" t="s">
         <v>158</v>
       </c>
@@ -3784,72 +3832,74 @@
       <c r="D133" t="s">
         <v>16</v>
       </c>
+      <c r="G133" s="1"/>
       <c r="H133" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" s="5">
+      <c r="A134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="4">
         <v>2022</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5" t="s">
+      <c r="C134" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="5" t="s">
+      <c r="G134" s="5"/>
+      <c r="H134" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B135">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C135" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>120</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H135" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>73</v>
+      </c>
+      <c r="B136">
+        <v>2014</v>
+      </c>
+      <c r="C136" t="s">
         <v>50</v>
       </c>
-      <c r="D135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>83</v>
-      </c>
-      <c r="H135" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="5" t="s">
-        <v>82</v>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>107</v>
+      </c>
+      <c r="H136" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3868,8 +3918,149 @@
       <c r="F137" t="s">
         <v>83</v>
       </c>
+      <c r="G137" s="1"/>
       <c r="H137" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138">
+        <v>2017</v>
+      </c>
+      <c r="C138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>112</v>
+      </c>
+      <c r="H138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>73</v>
+      </c>
+      <c r="B139">
+        <v>2020</v>
+      </c>
+      <c r="C139" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>117</v>
+      </c>
+      <c r="H139" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>73</v>
+      </c>
+      <c r="B140">
+        <v>2008</v>
+      </c>
+      <c r="C140" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>61</v>
+      </c>
+      <c r="H140" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141">
+        <v>2011</v>
+      </c>
+      <c r="C141" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>120</v>
+      </c>
+      <c r="H141" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142">
+        <v>2014</v>
+      </c>
+      <c r="C142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>87</v>
+      </c>
+      <c r="H142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143">
+        <v>2017</v>
+      </c>
+      <c r="C143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>77</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144">
+        <v>2020</v>
+      </c>
+      <c r="C144" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3884,10 +4075,10 @@
       <sortCondition ref="B1:B137"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H137">
-    <sortCondition ref="A2:A137"/>
-    <sortCondition ref="D2:D137"/>
-    <sortCondition ref="C2:C137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H144">
+    <sortCondition ref="A2:A144"/>
+    <sortCondition ref="D2:D144"/>
+    <sortCondition ref="C2:C144"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
@@ -3908,14 +4099,14 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
-    <hyperlink ref="H124" r:id="rId2" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
+    <hyperlink ref="H87" r:id="rId2" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
     <hyperlink ref="H75" r:id="rId3" xr:uid="{C2E4A6B9-5621-B549-B57E-A831E5A80B44}"/>
     <hyperlink ref="H49" r:id="rId4" xr:uid="{81E6D9E0-9F41-C14E-A9FE-A54BD14CE8DE}"/>
-    <hyperlink ref="H36" r:id="rId5" xr:uid="{73D76BFE-3329-E24F-BF51-6DE2D7EABDC5}"/>
-    <hyperlink ref="H37" r:id="rId6" xr:uid="{7CD351E3-780B-E34B-A618-1555BF35832E}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{3B0CDB0E-607B-374B-9692-9E56E9B957D9}"/>
-    <hyperlink ref="H22" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
-    <hyperlink ref="H23" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
+    <hyperlink ref="H125" r:id="rId5" xr:uid="{73D76BFE-3329-E24F-BF51-6DE2D7EABDC5}"/>
+    <hyperlink ref="H130" r:id="rId6" xr:uid="{7CD351E3-780B-E34B-A618-1555BF35832E}"/>
+    <hyperlink ref="H109" r:id="rId7" xr:uid="{3B0CDB0E-607B-374B-9692-9E56E9B957D9}"/>
+    <hyperlink ref="H110" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
+    <hyperlink ref="H53" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C94C37-8069-664B-98F1-295F6EB6DB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA06043-3FBD-E344-A7FC-BA967F0EBCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="123" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
       <selection activeCell="A109" sqref="A1:H144"/>
     </sheetView>
   </sheetViews>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA06043-3FBD-E344-A7FC-BA967F0EBCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA368D-231E-3643-972F-DD74D2EBDC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$H$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$H$144</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,10 +749,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1207,8 +1203,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A109" sqref="A1:H144"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1215,7 @@
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
     <col min="8" max="8" width="115.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1242,14 +1238,14 @@
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1265,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1287,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1306,12 +1302,12 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1322,7 @@
       </c>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" t="s">
         <v>98</v>
       </c>
       <c r="H5"/>
@@ -1349,7 +1345,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1362,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1400,11 +1396,11 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1417,11 +1413,11 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1454,11 +1450,11 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1471,7 +1467,7 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1527,7 +1523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1655,14 +1651,14 @@
       <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" t="s">
         <v>195</v>
       </c>
       <c r="H23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1753,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1773,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1810,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +1886,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1926,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1946,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1967,12 +1963,12 @@
       <c r="F39" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1992,7 +1988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +2001,7 @@
       <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" t="s">
         <v>98</v>
       </c>
       <c r="H41" s="3"/>
@@ -2083,7 +2079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2100,7 +2096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2113,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2184,7 +2180,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2205,7 +2201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2218,12 +2214,12 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" t="s">
         <v>98</v>
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2239,14 +2235,14 @@
       <c r="F53" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" t="s">
         <v>56</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2262,14 +2258,14 @@
       <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" t="s">
         <v>57</v>
       </c>
       <c r="H54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2282,11 +2278,11 @@
       <c r="D55" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2299,11 +2295,11 @@
       <c r="D56" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2336,11 +2332,11 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2353,11 +2349,11 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2369,7 @@
       <c r="F60" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" t="s">
         <v>57</v>
       </c>
       <c r="H60" t="s">
@@ -2422,7 +2418,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2473,7 +2469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2489,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2506,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2526,14 +2522,14 @@
       <c r="F68" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" t="s">
         <v>56</v>
       </c>
       <c r="H68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2546,11 +2542,11 @@
       <c r="D69" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2563,11 +2559,11 @@
       <c r="D70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2625,7 +2621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2646,7 +2642,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -2709,7 +2705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2843,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2882,7 @@
       </c>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -2923,12 +2919,12 @@
       <c r="F88" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G88" s="13"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +2941,7 @@
       <c r="F89" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="13"/>
+      <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
         <v>82</v>
       </c>
@@ -2968,7 +2964,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +2985,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3010,7 +3006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
@@ -3027,7 +3023,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>6</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -3083,7 +3079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3100,7 +3096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3121,7 +3117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -3142,7 +3138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>6</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>6</v>
       </c>
@@ -3176,7 +3172,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>6</v>
       </c>
@@ -3193,7 +3189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3206,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>6</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3287,7 +3283,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -3324,14 +3320,14 @@
       <c r="F109" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="12" t="s">
+      <c r="G109" t="s">
         <v>20</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3343,7 @@
       <c r="F110" t="s">
         <v>21</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" t="s">
         <v>23</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -3396,7 +3392,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3414,7 +3410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3430,14 +3426,14 @@
       <c r="F114" t="s">
         <v>24</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="G114" t="s">
         <v>28</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3453,7 +3449,7 @@
       <c r="F115" t="s">
         <v>25</v>
       </c>
-      <c r="G115" s="12" t="s">
+      <c r="G115" t="s">
         <v>29</v>
       </c>
       <c r="H115" t="s">
@@ -3481,7 +3477,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3502,7 +3498,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3561,7 +3557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -3582,7 +3578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -3598,14 +3594,14 @@
       <c r="F122" t="s">
         <v>26</v>
       </c>
-      <c r="G122" s="12" t="s">
+      <c r="G122" t="s">
         <v>30</v>
       </c>
       <c r="H122" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -3621,14 +3617,14 @@
       <c r="F123" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="12" t="s">
+      <c r="G123" t="s">
         <v>31</v>
       </c>
       <c r="H123" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>73</v>
       </c>
@@ -3644,14 +3640,14 @@
       <c r="F124" t="s">
         <v>131</v>
       </c>
-      <c r="G124" s="12" t="s">
+      <c r="G124" t="s">
         <v>132</v>
       </c>
       <c r="H124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -3667,7 +3663,7 @@
       <c r="F125" t="s">
         <v>131</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G125" t="s">
         <v>133</v>
       </c>
       <c r="H125" s="3" t="s">
@@ -3713,7 +3709,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3731,7 +3727,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>73</v>
       </c>
@@ -3768,14 +3764,14 @@
       <c r="F130" t="s">
         <v>131</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G130" t="s">
         <v>134</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>73</v>
       </c>
@@ -3791,7 +3787,7 @@
       <c r="F131" t="s">
         <v>120</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G131" t="s">
         <v>122</v>
       </c>
       <c r="H131" t="s">
@@ -3819,7 +3815,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3837,7 +3833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -3859,7 +3855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>73</v>
       </c>
@@ -3875,14 +3871,14 @@
       <c r="F135" t="s">
         <v>120</v>
       </c>
-      <c r="G135" s="12" t="s">
+      <c r="G135" t="s">
         <v>123</v>
       </c>
       <c r="H135" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>73</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>73</v>
       </c>
@@ -3963,7 +3959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>73</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -4023,7 +4019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>73</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>73</v>
       </c>
@@ -4064,11 +4060,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H137" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
+  <autoFilter ref="A1:H144" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
     <filterColumn colId="3">
       <filters>
-        <filter val="mobile"/>
-        <filter val="onroad"/>
+        <filter val="nonroad"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H136">
@@ -4107,6 +4102,7 @@
     <hyperlink ref="H109" r:id="rId7" xr:uid="{3B0CDB0E-607B-374B-9692-9E56E9B957D9}"/>
     <hyperlink ref="H110" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
     <hyperlink ref="H53" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
+    <hyperlink ref="H76" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD92B4-6C08-1243-B861-8D9C788BDA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F5ABF-C347-1D44-85DE-CD10D0F0E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$146</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="249">
   <si>
     <t>file_name</t>
   </si>
@@ -755,6 +755,39 @@
   </si>
   <si>
     <t>repCDBS</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2020/doc/flat_files/SmokeFlatFile_ONROAD_20230330.zip</t>
+  </si>
+  <si>
+    <t>smoke_flat_file</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2020/doc/flat_files/SmokeFlatFile_NONROAD_20230330.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2014/flat_files/SmokeFlatFile_NONROAD_20160917.csv.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2014/flat_files/SmokeFlatFile_ONROAD_20160910.csv.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2017/doc/flat_files/2017NEI_nonroad_20200427.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2008/flat_files/2008NEIv3_ONROAD_20130225.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2008/flat_files/2008NEIv3_NONROAD_20130224.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2017/doc/flat_files/onroad_by_state/2017NEI_onroad_FF10_SMOKE_MOVES_FIPS_55.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2017/doc/flat_files/onroad_by_state/2017NEI_onroad_FF10_SMOKE_MOVES_FIPS_27.zip</t>
+  </si>
+  <si>
+    <t>2014NEI</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4273,67 +4306,65 @@
         <v>2020</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>223</v>
       </c>
       <c r="I134" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B135">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C135" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I135" t="s">
-        <v>139</v>
+        <v>223</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G136" s="4"/>
+      <c r="A136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136">
+        <v>2020</v>
+      </c>
+      <c r="C136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>77</v>
+      </c>
       <c r="H136" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>84</v>
+        <v>223</v>
+      </c>
+      <c r="I136" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4344,17 +4375,19 @@
         <v>2021</v>
       </c>
       <c r="C137" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>80</v>
+      </c>
       <c r="H137" s="1" t="s">
         <v>217</v>
       </c>
       <c r="I137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4368,17 +4401,18 @@
         <v>47</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G138" s="1"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I138" t="s">
-        <v>79</v>
+      <c r="I138" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4389,68 +4423,65 @@
         <v>2021</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
-      </c>
-      <c r="F139" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
         <v>217</v>
       </c>
       <c r="I139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>80</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I140" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>2021</v>
+      </c>
+      <c r="C141" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+      <c r="F141" t="s">
+        <v>80</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I141" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140">
-        <v>2022</v>
-      </c>
-      <c r="C140" t="s">
-        <v>49</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>82</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="4">
-        <v>2022</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4461,17 +4492,19 @@
         <v>2022</v>
       </c>
       <c r="C142" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>82</v>
+      </c>
       <c r="H142" s="5" t="s">
         <v>218</v>
       </c>
       <c r="I142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4485,18 +4518,18 @@
         <v>47</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G143" s="5"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="5" t="s">
         <v>218</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4507,32 +4540,285 @@
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="D144" t="s">
-        <v>149</v>
-      </c>
-      <c r="F144" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="5" t="s">
         <v>218</v>
       </c>
       <c r="I144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>2022</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146" t="s">
+        <v>149</v>
+      </c>
+      <c r="F146" t="s">
+        <v>82</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I146" t="s">
         <v>158</v>
       </c>
     </row>
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>72</v>
+      </c>
+      <c r="B147">
+        <v>2017</v>
+      </c>
+      <c r="C147" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>111</v>
+      </c>
+      <c r="G147" t="s">
+        <v>121</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148">
+        <v>2017</v>
+      </c>
+      <c r="C148" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>111</v>
+      </c>
+      <c r="G148" t="s">
+        <v>122</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>72</v>
+      </c>
+      <c r="B149">
+        <v>2017</v>
+      </c>
+      <c r="C149" t="s">
+        <v>239</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
+        <v>111</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I149" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150">
+        <v>2014</v>
+      </c>
+      <c r="C150" t="s">
+        <v>239</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>248</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151">
+        <v>2014</v>
+      </c>
+      <c r="C151" t="s">
+        <v>239</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>248</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152">
+        <v>2011</v>
+      </c>
+      <c r="C152" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>97</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153">
+        <v>2011</v>
+      </c>
+      <c r="C153" t="s">
+        <v>239</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>97</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154">
+        <v>2008</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>60</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I154" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>72</v>
+      </c>
+      <c r="B155">
+        <v>2008</v>
+      </c>
+      <c r="C155" t="s">
+        <v>239</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" t="s">
+        <v>60</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I155" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I144" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I144">
-      <sortCondition ref="B1:B144"/>
+  <autoFilter ref="A1:I146" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I146">
+      <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I144">
-    <sortCondition ref="A2:A144"/>
-    <sortCondition ref="D2:D144"/>
-    <sortCondition ref="C2:C144"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I146">
+    <sortCondition ref="A2:A146"/>
+    <sortCondition ref="D2:D146"/>
+    <sortCondition ref="C2:C146"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
@@ -4563,6 +4849,9 @@
     <hyperlink ref="I27" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
     <hyperlink ref="I24" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
     <hyperlink ref="I80" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
+    <hyperlink ref="I135" r:id="rId11" xr:uid="{FA8A1007-708D-DF45-A09D-78C317607EA1}"/>
+    <hyperlink ref="I150" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
+    <hyperlink ref="I151" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F5ABF-C347-1D44-85DE-CD10D0F0E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E696F8-B635-0641-8D52-6CC06C6F7851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="259">
   <si>
     <t>file_name</t>
   </si>
@@ -349,9 +349,6 @@
     <t>https://gaftp.epa.gov/Air/emismod/2011/v3platform/2011emissions/2011ek_cb6v2_v6_11g_inputs_nonroad_part1.zip</t>
   </si>
   <si>
-    <t>2011ek_cb6v2_v6_11g</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2016/v3/2016emissions/2016gf_onroad_activity_15dec2022.zip</t>
   </si>
   <si>
@@ -788,6 +785,39 @@
   </si>
   <si>
     <t>2014NEI</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/emismod/2011/v3platform/2011emissions/2011ek_onroad_SMOKE_MOVES_MOVES2014a_forOTAQ_21jan2016_v2_AL_to_MO.zip</t>
+  </si>
+  <si>
+    <t>AL to MO</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/emismod/2011/v3platform/2011emissions/2011ek_onroad_SMOKE_MOVES_MOVES2014a_forOTAQ_21jan2016_v2_MT_to_WY.zip</t>
+  </si>
+  <si>
+    <t>MT to WY</t>
+  </si>
+  <si>
+    <t>2011ek</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2017/doc/flat_files/2017NEI_onroad_20200427.zip</t>
+  </si>
+  <si>
+    <t>contains 2017NEI_onroad_CONUS_noCalifornia.csv</t>
+  </si>
+  <si>
+    <t>onroad by region</t>
+  </si>
+  <si>
+    <t>nonroad by region</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/emismod/2014/v2/2014fd/emissions/by_state/onroad/2014fd_onroad_FF10_SMOKE_MOVES2014a_FIPS_27.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/emismod/2014/v2/2014fd/emissions/by_state/onroad/2014fd_onroad_FF10_SMOKE_MOVES2014a_FIPS_55.zip</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:I155"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1437,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1425,13 +1456,13 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1483,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1460,22 +1491,22 @@
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1490,17 +1521,17 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1549,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1567,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1554,13 +1585,13 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1568,20 +1599,20 @@
         <v>2002</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1598,13 +1629,13 @@
         <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1612,22 +1643,22 @@
         <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1647,13 +1678,13 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1661,17 +1692,17 @@
         <v>2003</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1720,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1738,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1715,17 +1746,17 @@
         <v>2004</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1774,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1792,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1809,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1827,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1814,13 +1845,13 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1828,23 +1859,23 @@
         <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1858,19 +1889,19 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1884,19 +1915,19 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -1904,22 +1935,22 @@
         <v>2005</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1939,13 +1970,13 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1953,17 +1984,17 @@
         <v>2006</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2012,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +2029,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2006,17 +2037,17 @@
         <v>2007</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2030,11 +2061,11 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2082,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2065,10 +2096,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2117,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2104,13 +2135,13 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2118,20 +2149,20 @@
         <v>2008</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2148,13 +2179,13 @@
         <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2172,13 +2203,13 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2186,23 +2217,23 @@
         <v>2008</v>
       </c>
       <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
         <v>172</v>
       </c>
-      <c r="D40" t="s">
-        <v>173</v>
-      </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2210,25 +2241,25 @@
         <v>2008</v>
       </c>
       <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
         <v>125</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" t="s">
         <v>126</v>
       </c>
-      <c r="F41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2236,25 +2267,25 @@
         <v>2008</v>
       </c>
       <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
         <v>125</v>
       </c>
-      <c r="D42" t="s">
-        <v>126</v>
-      </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2262,25 +2293,25 @@
         <v>2008</v>
       </c>
       <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
         <v>125</v>
       </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2297,13 +2328,13 @@
         <v>60</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2311,22 +2342,22 @@
         <v>2008</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2346,13 +2377,13 @@
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2360,17 +2391,17 @@
         <v>2009</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2419,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2413,17 +2444,17 @@
         <v>2010</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2441,7 +2472,7 @@
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +2489,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2475,13 +2506,13 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2495,19 +2526,19 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>100</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2521,19 +2552,19 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2553,13 +2584,13 @@
         <v>56</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2567,23 +2598,23 @@
         <v>2011</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2603,13 +2634,13 @@
         <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2623,17 +2654,17 @@
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -2651,13 +2682,13 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -2665,23 +2696,23 @@
         <v>2011</v>
       </c>
       <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" t="s">
         <v>172</v>
       </c>
-      <c r="D61" t="s">
-        <v>173</v>
-      </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2689,25 +2720,25 @@
         <v>2011</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" t="s">
         <v>119</v>
       </c>
-      <c r="G62" t="s">
-        <v>121</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2715,25 +2746,25 @@
         <v>2011</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I63" t="s">
         <v>122</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
@@ -2741,22 +2772,22 @@
         <v>2011</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2770,16 +2801,16 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2799,13 +2830,13 @@
         <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I66" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2853,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2871,7 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2848,17 +2879,17 @@
         <v>2012</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +2907,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2924,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +2941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +2962,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +2980,7 @@
       </c>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +2997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2974,87 +3005,86 @@
         <v>2013</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="H77" t="s">
-        <v>210</v>
+        <v>252</v>
+      </c>
+      <c r="G77" t="s">
+        <v>249</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="I77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="F78" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s">
-        <v>210</v>
+      <c r="G78" t="s">
+        <v>251</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79">
+        <v>2011</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -3062,23 +3092,22 @@
         <v>2014</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
         <v>94</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>209</v>
+      </c>
+      <c r="I80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -3086,42 +3115,48 @@
         <v>2014</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82" s="4">
         <v>2014</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>236</v>
-      </c>
-      <c r="H82" t="s">
-        <v>229</v>
-      </c>
-      <c r="I82" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83">
         <v>2014</v>
@@ -3130,72 +3165,63 @@
         <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" t="s">
-        <v>229</v>
-      </c>
-      <c r="I83" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B84">
         <v>2014</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85">
+        <v>148</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="4">
         <v>2014</v>
       </c>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
+      <c r="C85" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
+      </c>
+      <c r="H85" t="s">
+        <v>228</v>
       </c>
       <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <v>2014</v>
@@ -3204,17 +3230,19 @@
         <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1" t="s">
-        <v>221</v>
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" t="s">
+        <v>228</v>
       </c>
       <c r="I86" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3225,20 +3253,20 @@
         <v>2014</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3249,19 +3277,20 @@
         <v>2014</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3275,19 +3304,20 @@
         <v>47</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
         <v>86</v>
       </c>
+      <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -3304,13 +3334,13 @@
         <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I90" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3327,16 +3357,16 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I91" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3353,13 +3383,13 @@
         <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3377,13 +3407,13 @@
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3397,12 +3427,12 @@
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3410,20 +3440,20 @@
         <v>2015</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3437,16 +3467,16 @@
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I96" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3463,13 +3493,13 @@
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -3477,23 +3507,23 @@
         <v>2016</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3507,17 +3537,17 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3525,20 +3555,20 @@
         <v>2016</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3555,13 +3585,13 @@
         <v>13</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3578,13 +3608,13 @@
         <v>13</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3632,7 @@
       </c>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3620,13 +3650,13 @@
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -3634,23 +3664,23 @@
         <v>2017</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>5</v>
       </c>
@@ -3658,22 +3688,22 @@
         <v>2017</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
@@ -3690,13 +3720,13 @@
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3716,13 +3746,13 @@
         <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I108" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>72</v>
       </c>
@@ -3730,23 +3760,23 @@
         <v>2017</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -3762,15 +3792,17 @@
       <c r="F110" t="s">
         <v>76</v>
       </c>
-      <c r="G110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="H110" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -3778,23 +3810,23 @@
         <v>2017</v>
       </c>
       <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" t="s">
         <v>172</v>
       </c>
-      <c r="D111" t="s">
-        <v>173</v>
-      </c>
       <c r="F111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -3808,16 +3840,16 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I112" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -3833,14 +3865,17 @@
       <c r="F113" t="s">
         <v>76</v>
       </c>
+      <c r="G113" t="s">
+        <v>255</v>
+      </c>
       <c r="H113" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I113" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3854,16 +3889,16 @@
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3877,16 +3912,16 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I115" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -3894,20 +3929,20 @@
         <v>2018</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -3925,13 +3960,13 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I117" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -3939,23 +3974,23 @@
         <v>2018</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -3963,23 +3998,23 @@
         <v>2018</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -3993,16 +4028,16 @@
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -4019,13 +4054,13 @@
         <v>41</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I121" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -4033,20 +4068,20 @@
         <v>2019</v>
       </c>
       <c r="C122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4054,23 +4089,23 @@
         <v>2019</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I123" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -4084,17 +4119,17 @@
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I124" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4108,16 +4143,16 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4134,13 +4169,13 @@
         <v>36</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -4148,7 +4183,7 @@
         <v>2020</v>
       </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -4158,7 +4193,7 @@
       </c>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4176,13 +4211,13 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4190,23 +4225,23 @@
         <v>2020</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>72</v>
       </c>
@@ -4214,23 +4249,23 @@
         <v>2020</v>
       </c>
       <c r="C130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I130" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>72</v>
       </c>
@@ -4248,13 +4283,13 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I131" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -4262,20 +4297,20 @@
         <v>2020</v>
       </c>
       <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" t="s">
         <v>172</v>
-      </c>
-      <c r="D132" t="s">
-        <v>173</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I132" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -4289,16 +4324,16 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -4306,22 +4341,22 @@
         <v>2020</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I134" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -4329,22 +4364,22 @@
         <v>2020</v>
       </c>
       <c r="C135" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>115</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D135" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" t="s">
-        <v>116</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -4361,13 +4396,13 @@
         <v>77</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I136" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -4384,13 +4419,13 @@
         <v>80</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>6</v>
       </c>
@@ -4409,13 +4444,13 @@
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4423,20 +4458,20 @@
         <v>2021</v>
       </c>
       <c r="C139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>6</v>
       </c>
@@ -4454,13 +4489,13 @@
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I140" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4468,23 +4503,23 @@
         <v>2021</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F141" t="s">
         <v>80</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4501,13 +4536,13 @@
         <v>82</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>6</v>
       </c>
@@ -4526,13 +4561,13 @@
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4540,20 +4575,20 @@
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I144" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>6</v>
       </c>
@@ -4572,13 +4607,13 @@
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4586,23 +4621,23 @@
         <v>2022</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F146" t="s">
         <v>82</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -4610,25 +4645,25 @@
         <v>2017</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>72</v>
       </c>
@@ -4636,25 +4671,25 @@
         <v>2017</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>72</v>
       </c>
@@ -4662,19 +4697,19 @@
         <v>2017</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="F149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I149" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4685,19 +4720,20 @@
         <v>2014</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="F150" t="s">
-        <v>248</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>242</v>
+        <v>176</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I150" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4708,19 +4744,19 @@
         <v>2014</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>248</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>241</v>
+        <v>105</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I151" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4728,19 +4764,22 @@
         <v>72</v>
       </c>
       <c r="B152">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>97</v>
-      </c>
-      <c r="H152" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H152" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="I152" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4748,19 +4787,22 @@
         <v>72</v>
       </c>
       <c r="B153">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>220</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4768,25 +4810,25 @@
         <v>72</v>
       </c>
       <c r="B154">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I154" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4794,25 +4836,131 @@
         <v>2008</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F155" t="s">
         <v>60</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I155" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>72</v>
+      </c>
+      <c r="B156">
+        <v>2008</v>
+      </c>
+      <c r="C156" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s">
+        <v>60</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I156" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157">
+        <v>2017</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>110</v>
+      </c>
+      <c r="G157" t="s">
+        <v>254</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I157" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>2014</v>
+      </c>
+      <c r="C158" t="s">
+        <v>238</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>94</v>
+      </c>
+      <c r="G158" t="s">
+        <v>120</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>2014</v>
+      </c>
+      <c r="C159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>94</v>
+      </c>
+      <c r="G159" t="s">
+        <v>121</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I146" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I146">
-      <sortCondition ref="B1:B146"/>
+  <autoFilter ref="A1:I157" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2014"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I154">
+      <sortCondition ref="B1:B156"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I146">
@@ -4841,17 +4989,18 @@
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
     <hyperlink ref="I126" r:id="rId2" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
-    <hyperlink ref="I79" r:id="rId3" xr:uid="{C2E4A6B9-5621-B549-B57E-A831E5A80B44}"/>
+    <hyperlink ref="I82" r:id="rId3" xr:uid="{C2E4A6B9-5621-B549-B57E-A831E5A80B44}"/>
     <hyperlink ref="I55" r:id="rId4" xr:uid="{81E6D9E0-9F41-C14E-A9FE-A54BD14CE8DE}"/>
     <hyperlink ref="I42" r:id="rId5" xr:uid="{73D76BFE-3329-E24F-BF51-6DE2D7EABDC5}"/>
     <hyperlink ref="I43" r:id="rId6" xr:uid="{7CD351E3-780B-E34B-A618-1555BF35832E}"/>
     <hyperlink ref="I13" r:id="rId7" xr:uid="{3B0CDB0E-607B-374B-9692-9E56E9B957D9}"/>
     <hyperlink ref="I27" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
     <hyperlink ref="I24" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
-    <hyperlink ref="I80" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
+    <hyperlink ref="I83" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
     <hyperlink ref="I135" r:id="rId11" xr:uid="{FA8A1007-708D-DF45-A09D-78C317607EA1}"/>
-    <hyperlink ref="I150" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
-    <hyperlink ref="I151" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
+    <hyperlink ref="I153" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
+    <hyperlink ref="I154" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
+    <hyperlink ref="I159" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4876,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4884,7 +5033,7 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4892,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4900,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4920,32 +5069,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E696F8-B635-0641-8D52-6CC06C6F7851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC2E5F8-BEA8-434F-B359-384BF37BB24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="261">
   <si>
     <t>file_name</t>
   </si>
@@ -818,6 +818,12 @@
   </si>
   <si>
     <t>https://gaftp.epa.gov/air/emismod/2014/v2/2014fd/emissions/by_state/onroad/2014fd_onroad_FF10_SMOKE_MOVES2014a_FIPS_55.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2014/data_summaries/2014v2/CO_CO2_2014fd_nata_onroad_SMOKE_MOVES_MOVES2014a_forNATA_12jan2018_v1.zip</t>
+  </si>
+  <si>
+    <t>CO and CO2</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4950,6 +4956,32 @@
       </c>
       <c r="I159" s="3" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>72</v>
+      </c>
+      <c r="B160">
+        <v>2014</v>
+      </c>
+      <c r="C160" t="s">
+        <v>238</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>94</v>
+      </c>
+      <c r="G160" t="s">
+        <v>260</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I160" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC2E5F8-BEA8-434F-B359-384BF37BB24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2071D58-B675-8745-AAF0-8B08061C5EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="273">
   <si>
     <t>file_name</t>
   </si>
@@ -824,6 +824,42 @@
   </si>
   <si>
     <t>CO and CO2</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1jw_0216cTDSw-FrojrgGbKU5myl23ybv&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=fccfb764-8849-44fc-b506-7de81bbdd4e8&amp;at=AO7h07e29Tc-CjdVA7IphIHXaT1L:1727277124697</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1W1QBtNB89FfWdSE3RQdnFoedwjgn0ctB&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=9768171e-056f-45b5-aba8-71f4a69146dc&amp;at=AO7h07eZwuW4OJnGLz83u0LU7rHi:1727277818221</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1Y6D0YJuMy97hlhG58R5LjmVrVqucNlgy&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=0bf155e4-d9e9-44a9-ab43-8d93505a6b9b&amp;at=AO7h07eoLdEncM7sZJSEMmhw7bBE:1727277879290</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1TTzPa0vse1_z0On-82uBF53IQ6zY5DIX&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=33810c7d-2a28-4d52-bfc2-68598662f428&amp;at=AO7h07cwKOMiDUnr7tirwMaGCb8t:1727277945324</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1QIaSG3kyReCLUJXXgHubUZKuo1Q5pAsl&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=348fa232-1e5b-445c-9c37-5b49be9819ae&amp;at=AO7h07e7A3qXQiUtgm2L4-zYU3Io:1727277967596</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1ZCAzfSxfzehgKT3RdDO3K6MOko8heOii&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=e597b786-efbb-4922-8161-0af94006d6f0&amp;at=AO7h07cjDkT1iJ9hgSwJ7nIxUY1V:1727277988258</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=17qLqwJllqX-XloScSNaxdviQDspTufep&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=d6b82ccf-f5c3-41d2-9b2b-b7bfbf731eeb&amp;at=AO7h07cjoWUwZU0ju9kc4N35ZFQ6:1727278302203</t>
+  </si>
+  <si>
+    <t>_transportation/data-raw/epa/air_emissions_modeling/EQUATES/CMAS_Data_Warehouse</t>
+  </si>
+  <si>
+    <t>Contains N2O</t>
+  </si>
+  <si>
+    <t>EQUATES CMAS Data Warehouse</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1G2_LBLy7_n91Ur0ulsLZ9zwGs3luTzn2</t>
+  </si>
+  <si>
+    <t>Data downloaded from the CMAS Data Warehouse Google Drive includes many more sectors and scripts.</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+      <selection activeCell="C161" sqref="C161:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1425,7 @@
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.5" customWidth="1"/>
     <col min="9" max="9" width="115.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4982,6 +5018,149 @@
       </c>
       <c r="I160" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>2002</v>
+      </c>
+      <c r="C161" t="s">
+        <v>238</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I161" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>2005</v>
+      </c>
+      <c r="C162" t="s">
+        <v>238</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I162" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>2008</v>
+      </c>
+      <c r="C163" t="s">
+        <v>238</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I163" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>2011</v>
+      </c>
+      <c r="C164" t="s">
+        <v>238</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>2014</v>
+      </c>
+      <c r="C165" t="s">
+        <v>238</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I165" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>2017</v>
+      </c>
+      <c r="C166" t="s">
+        <v>238</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I166" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>2019</v>
+      </c>
+      <c r="C167" t="s">
+        <v>238</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>269</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I167" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5040,10 +5219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D232C1-B777-0648-8306-8752ED74FD38}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5084,6 +5263,14 @@
         <v>186</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5091,10 +5278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD660B9-EDB1-794A-9EA6-28DC0455076C}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5129,6 +5316,11 @@
         <v>234</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2071D58-B675-8745-AAF0-8B08061C5EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600726E5-911E-E348-8159-EA60B0810172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600726E5-911E-E348-8159-EA60B0810172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9F250-9FE9-CF4B-AD29-FCE3F285C282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="317">
   <si>
     <t>file_name</t>
   </si>
@@ -860,13 +860,145 @@
   </si>
   <si>
     <t>Data downloaded from the CMAS Data Warehouse Google Drive includes many more sectors and scripts.</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1eSgTweGuX3xdP1ZZioyNufgHmmooPOcG&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=971b95d9-b965-44c9-b91a-6f3436495f86&amp;at=AN_67v2yl5IR2QHPYuNd5Gxsv9y-:1727793725340</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1r3B4TIKy5cestvKygL-2IMRD6OIq47XD&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=2a280431-7bdc-428a-963f-ddf0703dac60&amp;at=AN_67v2ascXZJsERRs76veVFW1-L:1727793829937</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1o1JpcQFMfgGZtE5EJpd5K9Aaj0E2EQso&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=f72e8f04-4107-4579-8d9a-c28f8984147b&amp;at=AN_67v0wITHCuhqWPNOHXGD-Lnoq:1727793840527</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1N4Gsoi6mZWzsawyZiRAgtpB53w27IyIl&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=a7749fd5-4e3f-46de-8c9d-469b496816d3&amp;at=AN_67v2vgmnRnUReCWDDCwrIVEFD:1727793849201</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1ySYl3sEFylupdOo3O-lO4ff6lUJVtM-q&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=e75a3b7c-ee4c-4550-b510-55af812beac5&amp;at=AN_67v0pMPGPYnfI1qi1_FyOGD1R:1727793857681</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1tZL5rR-ZeIJttsWYyz8_Sz5GmujetebL&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=09c0dce8-fd7a-41cf-8ef0-53cfac5dbff1&amp;at=AN_67v10MQMcSgXyaOURK-oCc641:1727793865552</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1vwoNDVHsoJ2i9bUYUv18nfumwBVvnE8U&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=e59e6ce8-8b03-4e25-943a-14d48baec665&amp;at=AN_67v2vBvr4k_A42rZ9noWSi_KN:1727793881049</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1bw603SJviRhJAD4VmEfEg2ZDDiwMhLoL&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=213983a2-399a-41e6-b259-8f6682ce2005&amp;at=AN_67v07yRNYtmAtaT3uIaFesahd:1727793891635</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1khWYlCPnD7Vf0v6Y_K0TsJ39UlW20UdA&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=02133a20-210d-40d8-af82-849dda15c500&amp;at=AN_67v0DrQDKTYPDQ0YIHRy-DesS:1727793899974</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1gxcSlNO9pMkkZMiHgAXB8CfG4kMDaBR3&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=49517128-e290-4414-ae8b-83a3ccc57027&amp;at=AN_67v38elmXKqBFIQw9ghzJIamv:1727793909205</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=13ecUVPuqBNhavP7MmDR399Bfa1oFO1mo&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=6ade43ee-13dc-48f4-8603-c7ee91e31a28&amp;at=AN_67v3gMpG_p2qTzJ_fAVWXlP5N:1727793922912</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1lVMOGchs1y8xhmYMlQU1AxHkCXmsHn_Z&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=38e90001-5a6b-46c9-af59-884936353192&amp;at=AN_67v2reTXHjuEzzYgKPASyn1cx:1727793930880</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=10754IBAsNO0pMSLL-pjYRZP1jFVitCZ5&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=04b50b5c-b127-4343-854d-e48a1f972081&amp;at=AN_67v2XHRgCFDCmt9VSP70SYF4G:1727793940011</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1BVhx3YBkrDxh9w2nw1tuU6iPAUJoIDDY&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=fe805a21-871a-4080-a335-807b329e1e1d&amp;at=AN_67v0urjQ-RZX0V6A71JJh63WP:1727793949180</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1Nn0fgVXD044N1jdBR9vrSm77EpA-oWSO&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=ae90a5a0-3ff0-4d2f-b603-83e4db1e6161&amp;at=AN_67v1e5kYNTorFsXQWt1kL1P4P:1727793957895</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1rDc0aLDcY8fUErsuYkXlAiNUSghm1pA7&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=0d211734-cbca-419a-b5a7-5ddb3bf60c59&amp;at=AN_67v2i0tKobmmJNZk-w9WI3-si:1727793966840</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1NyQk-V6o4eXBIfaqLh3Xx6wUH8ClCGhu&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=badc02cc-0f5e-4a17-9bf1-22b84065f3e5&amp;at=AN_67v35iuoZ8QylrSlQj9ylu6xe:1727793975063</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/download?id=1IK7FMUs-Pu_h_XZYc6VeV6LVpA63plLS&amp;export=download&amp;authuser=0&amp;confirm=t&amp;uuid=1bf0d0da-1f66-431b-a160-dc5108a400fe&amp;at=AN_67v3Xx0zfbdHzuhmYlNJWtso4:1727793979481</t>
+  </si>
+  <si>
+    <t>Special upload from CMAS</t>
+  </si>
+  <si>
+    <t>EQUATES_2003_inventory_onroad_01jun2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2004_inventory_onroad_01jun2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2005_inventory_onroad_23jun2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2006_inventory_onroad_21may2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2007_inventory_onroad_11may2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2008_inventory_onroad_11may2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2009_inventory_onroad_07may2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2010_inventory_onroad_23jun2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2011_inventory_onroad_20apr2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2012_inventory_onroad_20apr2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2014_inventory_onroad_01mar2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2015_inventory_onroad_22feb2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2016_inventory_onroad_18feb2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2017_inventory_onroad_25jan2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2018_inventory_onroad_31aug2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2019_inventory_onroad_31aug2021</t>
+  </si>
+  <si>
+    <t>EQUATES_2002_inventory_onroad_01jun2021</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2002_version1.0</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2005_version1.0</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2008_version1.0</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2011_version1.0</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2014_version1.0</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2017_version1.0</t>
+  </si>
+  <si>
+    <t>EQUATES_INV_2019_version1.0</t>
+  </si>
+  <si>
+    <t>Special upload from CMAS. Contains N2O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -908,6 +1040,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -942,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -959,6 +1104,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1411,10 +1560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161:C167"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="123" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,37 +1573,38 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="85.5" customWidth="1"/>
     <col min="9" max="9" width="115.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3127,48 +3277,52 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80">
+      <c r="A80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="4">
         <v>2014</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80" s="4"/>
+      <c r="H80" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81">
+      <c r="A81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="4">
         <v>2014</v>
       </c>
-      <c r="C81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="C81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G81" s="4"/>
+      <c r="H81" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3185,58 +3339,63 @@
       <c r="D82" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="8" t="s">
+      <c r="G82" s="5"/>
+      <c r="H82" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83">
+      <c r="A83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="4">
         <v>2014</v>
       </c>
-      <c r="C83" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="8" t="s">
+      <c r="G83" s="5"/>
+      <c r="H83" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84">
+      <c r="A84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="4">
         <v>2014</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -3251,111 +3410,117 @@
       <c r="D85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F85" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H85" t="s">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>2014</v>
       </c>
-      <c r="C86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="C86" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>2014</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F87" t="s">
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1" t="s">
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>2014</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F88" t="s">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1" t="s">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>2014</v>
       </c>
-      <c r="C89" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1" t="s">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4755,118 +4920,127 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>2014</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F150" t="s">
+      <c r="E150" s="4"/>
+      <c r="F150" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1" t="s">
+      <c r="G150" s="5"/>
+      <c r="H150" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>2014</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="D151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="G151" s="4"/>
+      <c r="H151" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>2014</v>
       </c>
-      <c r="C152" t="s">
-        <v>47</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="C152" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="G152" s="4"/>
+      <c r="H152" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="A153" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>2014</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4" t="s">
         <v>247</v>
       </c>
+      <c r="G153" s="4"/>
       <c r="H153" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="I153" s="11" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>2014</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F154" t="s">
+      <c r="E154" s="4"/>
+      <c r="F154" s="4" t="s">
         <v>247</v>
       </c>
+      <c r="G154" s="4"/>
       <c r="H154" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="I154" s="11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4943,224 +5117,747 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158">
+      <c r="A158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="4">
         <v>2014</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="D158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159">
+      <c r="A159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="4">
         <v>2014</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="D159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="I159" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="A160" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>2014</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="D160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="4" t="s">
         <v>260</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="A161" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>2002</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D161" t="s">
-        <v>9</v>
-      </c>
+      <c r="D161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G161" s="4"/>
       <c r="H161" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="A162" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>2005</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D162" t="s">
-        <v>9</v>
-      </c>
+      <c r="D162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G162" s="4"/>
       <c r="H162" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="A163" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>2008</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D163" t="s">
-        <v>9</v>
-      </c>
+      <c r="D163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G163" s="4"/>
       <c r="H163" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="A164" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>2011</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D164" t="s">
-        <v>9</v>
-      </c>
+      <c r="D164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G164" s="4"/>
       <c r="H164" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="A165" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>2014</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D165" t="s">
-        <v>9</v>
-      </c>
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G165" s="4"/>
       <c r="H165" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="A166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <v>2017</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D166" t="s">
-        <v>9</v>
-      </c>
+      <c r="D166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G166" s="4"/>
       <c r="H166" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="A167" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>2019</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D167" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G167" s="4" t="s">
         <v>269</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="4" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" t="s">
+        <v>308</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" t="s">
+        <v>292</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" t="s">
+        <v>293</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="4"/>
+      <c r="F171" t="s">
+        <v>294</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="4">
+        <v>2006</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" t="s">
+        <v>295</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="4"/>
+      <c r="F173" t="s">
+        <v>296</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" t="s">
+        <v>297</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" t="s">
+        <v>298</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" t="s">
+        <v>299</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" t="s">
+        <v>300</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="4">
+        <v>2012</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" t="s">
+        <v>301</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="4">
+        <v>2013</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" t="s">
+        <v>301</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="4"/>
+      <c r="F180" t="s">
+        <v>302</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" t="s">
+        <v>303</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="4">
+        <v>2016</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="4"/>
+      <c r="F182" t="s">
+        <v>304</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4"/>
+      <c r="F183" t="s">
+        <v>305</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" t="s">
+        <v>306</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185" t="s">
+        <v>307</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5212,6 +5909,7 @@
     <hyperlink ref="I153" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
     <hyperlink ref="I154" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
     <hyperlink ref="I159" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
+    <hyperlink ref="I175" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9F250-9FE9-CF4B-AD29-FCE3F285C282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680252D-41BD-4A46-BD4B-EA288431A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680252D-41BD-4A46-BD4B-EA288431A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD3F1E-A53A-574A-BFB7-50FCD07CD69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="316">
   <si>
     <t>file_name</t>
   </si>
@@ -280,21 +280,12 @@
     <t>https://gaftp.epa.gov/air/nei/2020/data_summaries/2020nei_nonroad_byregion.zip</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/nonroad_inventory_2021hb_24may2024.zip</t>
-  </si>
-  <si>
     <t>2021hb</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/onroad_emissions_SMOKE-MOVES_FF10_2022hc_17jul2024.zip</t>
-  </si>
-  <si>
     <t>2022hc</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/nonroad_inventory_2022hc_17jul2024.zip</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/onroad_emissions_SMOKE-MOVES_FF10_2021hb_26mar2024.zip</t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/CDBs_2021_20240205.zip</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/onroad_activity_SMOKE-MOVES_FF10_2022hc_17jul2024.zip</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/CDBs_2022_20240214.zip</t>
   </si>
   <si>
@@ -514,9 +502,6 @@
     <t>https://gaftp.epa.gov/Air/emismod/2021/info_2021hb_package_24may2024.txt</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/info_2022hc_package_prelim_version_10aug2024.txt</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2001/2001emis/readme_2001emis.txt</t>
   </si>
   <si>
@@ -992,6 +977,18 @@
   </si>
   <si>
     <t>Special upload from CMAS. Contains N2O</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/2022hc_onroad_SMOKE-MOVES_MOVES4_emissions_FF10_23dec2024.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/2022hc_nonroad_inventory_20dec2024.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/info_2022v1_platform_package_24jan2025.txt</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/2022hc_onroad_activity_20dec2024.zip</t>
   </si>
 </sst>
 </file>
@@ -1559,11 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="123" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="123" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1624,12 +1620,12 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1648,13 +1644,13 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1670,12 +1666,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1683,22 +1679,22 @@
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1713,17 +1709,17 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1737,11 +1733,11 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1755,11 +1751,11 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1777,13 +1773,13 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1791,20 +1787,20 @@
         <v>2002</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1821,13 +1817,13 @@
         <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1835,22 +1831,22 @@
         <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1870,13 +1866,13 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1884,17 +1880,17 @@
         <v>2003</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1908,11 +1904,11 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1926,11 +1922,11 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1938,17 +1934,17 @@
         <v>2004</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1962,11 +1958,11 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1980,11 +1976,11 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1998,10 +1994,10 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2015,11 +2011,11 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2037,13 +2033,13 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2051,23 +2047,23 @@
         <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2081,19 +2077,19 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2107,19 +2103,19 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -2127,22 +2123,22 @@
         <v>2005</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2162,13 +2158,13 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2176,17 +2172,17 @@
         <v>2006</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2200,11 +2196,11 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2218,10 +2214,10 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2229,17 +2225,17 @@
         <v>2007</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2253,11 +2249,11 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2271,10 +2267,10 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2288,10 +2284,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2305,11 +2301,11 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2327,13 +2323,13 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2341,20 +2337,20 @@
         <v>2008</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2371,13 +2367,13 @@
         <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2391,17 +2387,17 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2409,23 +2405,23 @@
         <v>2008</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="s">
         <v>172</v>
-      </c>
-      <c r="F40" t="s">
-        <v>177</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2433,25 +2429,25 @@
         <v>2008</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2459,25 +2455,25 @@
         <v>2008</v>
       </c>
       <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D42" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2485,25 +2481,25 @@
         <v>2008</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2520,13 +2516,13 @@
         <v>60</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2534,22 +2530,22 @@
         <v>2008</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2569,13 +2565,13 @@
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2583,17 +2579,17 @@
         <v>2009</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2607,11 +2603,11 @@
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2625,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2636,17 +2632,17 @@
         <v>2010</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2660,11 +2656,11 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2678,10 +2674,10 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2698,13 +2694,13 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2718,19 +2714,19 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2744,19 +2740,19 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H55" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2776,13 +2772,13 @@
         <v>56</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2790,23 +2786,23 @@
         <v>2011</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2826,13 +2822,13 @@
         <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2846,17 +2842,17 @@
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -2870,17 +2866,17 @@
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -2888,23 +2884,23 @@
         <v>2011</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2912,25 +2908,25 @@
         <v>2011</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2938,25 +2934,25 @@
         <v>2011</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" t="s">
         <v>118</v>
       </c>
-      <c r="G63" t="s">
-        <v>121</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
@@ -2964,22 +2960,22 @@
         <v>2011</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2993,16 +2989,16 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3022,13 +3018,13 @@
         <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I66" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3042,10 +3038,10 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3059,11 +3055,11 @@
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3071,17 +3067,17 @@
         <v>2012</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -3095,11 +3091,11 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3113,10 +3109,10 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3130,10 +3126,10 @@
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>6</v>
       </c>
@@ -3149,12 +3145,12 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3168,11 +3164,11 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3186,10 +3182,10 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -3197,17 +3193,17 @@
         <v>2013</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3215,25 +3211,25 @@
         <v>2011</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I77" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -3241,22 +3237,22 @@
         <v>2011</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I78" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -3264,16 +3260,16 @@
         <v>2011</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3291,14 +3287,14 @@
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3320,7 +3316,7 @@
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>39</v>
@@ -3341,14 +3337,14 @@
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3366,14 +3362,14 @@
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3384,15 +3380,15 @@
         <v>2014</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="4"/>
@@ -3405,21 +3401,21 @@
         <v>2014</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3443,7 +3439,7 @@
         <v>29</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>33</v>
@@ -3457,21 +3453,21 @@
         <v>2014</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3482,21 +3478,21 @@
         <v>2014</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3514,17 +3510,17 @@
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -3541,13 +3537,13 @@
         <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I90" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3564,16 +3560,16 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H91" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3590,13 +3586,13 @@
         <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3614,13 +3610,13 @@
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3634,12 +3630,12 @@
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3647,20 +3643,20 @@
         <v>2015</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I95" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3674,16 +3670,16 @@
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H96" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3700,13 +3696,13 @@
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -3714,23 +3710,23 @@
         <v>2016</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3744,17 +3740,17 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3762,20 +3758,20 @@
         <v>2016</v>
       </c>
       <c r="C100" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3792,13 +3788,13 @@
         <v>13</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3815,13 +3811,13 @@
         <v>13</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -3835,11 +3831,11 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3857,13 +3853,13 @@
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -3871,23 +3867,23 @@
         <v>2017</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>5</v>
       </c>
@@ -3895,22 +3891,22 @@
         <v>2017</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H106" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
@@ -3927,13 +3923,13 @@
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3953,13 +3949,13 @@
         <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I108" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>72</v>
       </c>
@@ -3967,23 +3963,23 @@
         <v>2017</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -4000,16 +3996,16 @@
         <v>76</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -4017,23 +4013,23 @@
         <v>2017</v>
       </c>
       <c r="C111" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D111" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I111" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -4047,16 +4043,16 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I112" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -4073,16 +4069,16 @@
         <v>76</v>
       </c>
       <c r="G113" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I113" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4096,16 +4092,16 @@
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -4119,16 +4115,16 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I115" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4136,20 +4132,20 @@
         <v>2018</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -4167,13 +4163,13 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I117" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4181,23 +4177,23 @@
         <v>2018</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4205,23 +4201,23 @@
         <v>2018</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D119" t="s">
+        <v>144</v>
+      </c>
+      <c r="F119" t="s">
         <v>148</v>
-      </c>
-      <c r="F119" t="s">
-        <v>152</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -4235,16 +4231,16 @@
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -4261,13 +4257,13 @@
         <v>41</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I121" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -4275,20 +4271,20 @@
         <v>2019</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4296,23 +4292,23 @@
         <v>2019</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -4326,17 +4322,17 @@
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I124" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4350,16 +4346,16 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4376,13 +4372,13 @@
         <v>36</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -4390,17 +4386,17 @@
         <v>2020</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4418,13 +4414,13 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4432,23 +4428,23 @@
         <v>2020</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D129" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>72</v>
       </c>
@@ -4456,23 +4452,23 @@
         <v>2020</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I130" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>72</v>
       </c>
@@ -4490,13 +4486,13 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I131" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -4504,20 +4500,20 @@
         <v>2020</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -4531,16 +4527,16 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I133" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -4548,22 +4544,22 @@
         <v>2020</v>
       </c>
       <c r="C134" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I134" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -4571,22 +4567,22 @@
         <v>2020</v>
       </c>
       <c r="C135" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -4603,13 +4599,13 @@
         <v>77</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I136" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -4623,16 +4619,16 @@
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>6</v>
       </c>
@@ -4647,17 +4643,17 @@
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4665,20 +4661,20 @@
         <v>2021</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>6</v>
       </c>
@@ -4692,17 +4688,17 @@
         <v>15</v>
       </c>
       <c r="F140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I140" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4710,23 +4706,23 @@
         <v>2021</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4740,16 +4736,16 @@
         <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I142" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>6</v>
       </c>
@@ -4764,17 +4760,17 @@
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4782,20 +4778,20 @@
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>6</v>
       </c>
@@ -4810,17 +4806,17 @@
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4828,23 +4824,23 @@
         <v>2022</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -4852,25 +4848,25 @@
         <v>2017</v>
       </c>
       <c r="C147" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G147" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>72</v>
       </c>
@@ -4878,25 +4874,25 @@
         <v>2017</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G148" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>72</v>
       </c>
@@ -4910,13 +4906,13 @@
         <v>15</v>
       </c>
       <c r="F149" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I149" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4927,21 +4923,21 @@
         <v>2014</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4959,14 +4955,14 @@
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4984,14 +4980,14 @@
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5002,21 +4998,21 @@
         <v>2014</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5027,24 +5023,24 @@
         <v>2014</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -5052,7 +5048,7 @@
         <v>2008</v>
       </c>
       <c r="C155" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
@@ -5061,13 +5057,13 @@
         <v>60</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I155" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>72</v>
       </c>
@@ -5075,7 +5071,7 @@
         <v>2008</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -5084,13 +5080,13 @@
         <v>60</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I156" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>72</v>
       </c>
@@ -5104,16 +5100,16 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G157" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I157" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5124,23 +5120,23 @@
         <v>2014</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5151,23 +5147,23 @@
         <v>2014</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5178,23 +5174,23 @@
         <v>2014</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5205,21 +5201,21 @@
         <v>2002</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5230,21 +5226,21 @@
         <v>2005</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5255,21 +5251,21 @@
         <v>2008</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5280,21 +5276,21 @@
         <v>2011</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5305,21 +5301,21 @@
         <v>2014</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5330,21 +5326,21 @@
         <v>2017</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5355,23 +5351,23 @@
         <v>2019</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5382,23 +5378,23 @@
         <v>2002</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H168" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5409,23 +5405,23 @@
         <v>2003</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5436,23 +5432,23 @@
         <v>2004</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5463,23 +5459,23 @@
         <v>2005</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5490,23 +5486,23 @@
         <v>2006</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5517,23 +5513,23 @@
         <v>2007</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5544,23 +5540,23 @@
         <v>2008</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5571,23 +5567,23 @@
         <v>2009</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5598,23 +5594,23 @@
         <v>2010</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5625,23 +5621,23 @@
         <v>2011</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5652,23 +5648,23 @@
         <v>2012</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5679,23 +5675,23 @@
         <v>2013</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5706,23 +5702,23 @@
         <v>2014</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5733,23 +5729,23 @@
         <v>2015</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5760,23 +5756,23 @@
         <v>2016</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5787,23 +5783,23 @@
         <v>2017</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5814,23 +5810,23 @@
         <v>2018</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5841,32 +5837,27 @@
         <v>2019</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I157" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2014"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I185" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I154">
       <sortCondition ref="B1:B156"/>
     </sortState>
@@ -5910,6 +5901,7 @@
     <hyperlink ref="I154" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
     <hyperlink ref="I159" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
     <hyperlink ref="I175" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
+    <hyperlink ref="I146" r:id="rId16" xr:uid="{78D2C5DD-3713-844A-92AC-6998C8206DEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5934,7 +5926,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5942,7 +5934,7 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5950,7 +5942,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5958,15 +5950,15 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5986,37 +5978,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680252D-41BD-4A46-BD4B-EA288431A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C502CDB-521C-0E43-98DD-20FC01B47F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
+    <workbookView xWindow="3840" yWindow="900" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="320">
   <si>
     <t>file_name</t>
   </si>
@@ -992,6 +992,15 @@
   </si>
   <si>
     <t>Special upload from CMAS. Contains N2O</t>
+  </si>
+  <si>
+    <t>2022hd</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v2/2022emissions/draft/2022hd_onroad_SMOKE-MOVES_inventory_19jun2025.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v2/reports/2022v2_emissions_docn.pdf</t>
   </si>
 </sst>
 </file>
@@ -1559,11 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="123" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1616,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1637,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1683,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1749,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1767,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1812,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1858,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1902,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1920,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1930,7 +1938,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +1956,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1974,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1992,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2027,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2043,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2194,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2212,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2247,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2265,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2317,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2451,7 +2459,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2477,7 +2485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2593,7 +2601,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2619,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2646,7 +2654,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2672,7 @@
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2704,7 +2712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2764,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2814,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2930,7 +2938,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3053,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3071,7 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3089,7 @@
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3107,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>6</v>
       </c>
@@ -3154,7 +3162,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3172,7 +3180,7 @@
       </c>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3189,7 +3197,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3215,7 @@
       </c>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3573,7 +3581,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3639,7 +3647,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3683,7 +3691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -3730,7 +3738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3754,7 +3762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3775,7 +3783,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3821,7 +3829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -3839,7 +3847,7 @@
       </c>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>5</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
@@ -3933,7 +3941,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>72</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -4009,7 +4017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -4082,7 +4090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4105,7 +4113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -4173,7 +4181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4197,7 +4205,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -4288,7 +4296,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4359,7 +4367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -4400,7 +4408,7 @@
       </c>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4448,7 +4456,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>72</v>
       </c>
@@ -4472,7 +4480,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>72</v>
       </c>
@@ -4496,7 +4504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -4540,7 +4548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -4563,7 +4571,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -4609,7 +4617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>6</v>
       </c>
@@ -4657,7 +4665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4678,7 +4686,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>6</v>
       </c>
@@ -4702,7 +4710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4749,7 +4757,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>6</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4795,7 +4803,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>6</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4844,59 +4852,55 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C147" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="F147" t="s">
-        <v>110</v>
-      </c>
-      <c r="G147" t="s">
-        <v>120</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B148">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>110</v>
-      </c>
-      <c r="G148" t="s">
-        <v>121</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I148" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>72</v>
       </c>
@@ -4904,69 +4908,71 @@
         <v>2017</v>
       </c>
       <c r="C149" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F149" t="s">
         <v>110</v>
       </c>
+      <c r="G149" t="s">
+        <v>120</v>
+      </c>
       <c r="H149" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150">
+        <v>2017</v>
+      </c>
+      <c r="C150" t="s">
+        <v>238</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>110</v>
+      </c>
+      <c r="G150" t="s">
+        <v>121</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151">
+        <v>2017</v>
+      </c>
+      <c r="C151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>110</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I151" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B150" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B151" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4977,21 +4983,21 @@
         <v>2014</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G152" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
         <v>220</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5002,21 +5008,21 @@
         <v>2014</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I153" s="11" t="s">
-        <v>241</v>
+      <c r="I153" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5027,152 +5033,148 @@
         <v>2014</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I154" s="11" t="s">
+      <c r="I154" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B155" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B156" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I156" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>72</v>
-      </c>
-      <c r="B155">
-        <v>2008</v>
-      </c>
-      <c r="C155" t="s">
-        <v>238</v>
-      </c>
-      <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>60</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I155" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>72</v>
-      </c>
-      <c r="B156">
-        <v>2008</v>
-      </c>
-      <c r="C156" t="s">
-        <v>238</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="F156" t="s">
-        <v>60</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I156" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>72</v>
       </c>
       <c r="B157">
+        <v>2008</v>
+      </c>
+      <c r="C157" t="s">
+        <v>238</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>60</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I157" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>72</v>
+      </c>
+      <c r="B158">
+        <v>2008</v>
+      </c>
+      <c r="C158" t="s">
+        <v>238</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" t="s">
+        <v>60</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I158" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>72</v>
+      </c>
+      <c r="B159">
         <v>2017</v>
       </c>
-      <c r="C157" t="s">
-        <v>47</v>
-      </c>
-      <c r="D157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="C159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
         <v>110</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G159" t="s">
         <v>254</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="H159" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I159" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B160" s="4">
         <v>2014</v>
@@ -5188,21 +5190,21 @@
         <v>94</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>220</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161" s="4">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>238</v>
@@ -5212,22 +5214,24 @@
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G161" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H161" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>261</v>
+        <v>220</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B162" s="4">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>238</v>
@@ -5237,14 +5241,16 @@
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G162" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="H162" s="5" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5252,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="B163" s="4">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>238</v>
@@ -5262,14 +5268,14 @@
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5277,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="B164" s="4">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>238</v>
@@ -5287,14 +5293,14 @@
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5302,7 +5308,7 @@
         <v>5</v>
       </c>
       <c r="B165" s="4">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>238</v>
@@ -5312,14 +5318,14 @@
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5327,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="B166" s="4">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>238</v>
@@ -5337,14 +5343,14 @@
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5352,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="B167" s="4">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>238</v>
@@ -5362,16 +5368,14 @@
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G167" s="4"/>
       <c r="H167" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5379,7 +5383,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="4">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>238</v>
@@ -5388,17 +5392,15 @@
         <v>9</v>
       </c>
       <c r="E168" s="4"/>
-      <c r="F168" t="s">
-        <v>308</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="F168" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G168" s="4"/>
       <c r="H168" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5406,7 +5408,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="4">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>238</v>
@@ -5415,17 +5417,17 @@
         <v>9</v>
       </c>
       <c r="E169" s="4"/>
-      <c r="F169" t="s">
-        <v>292</v>
+      <c r="F169" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5433,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="B170" s="4">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>238</v>
@@ -5443,7 +5445,7 @@
       </c>
       <c r="E170" s="4"/>
       <c r="F170" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>291</v>
@@ -5452,7 +5454,7 @@
         <v>268</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5460,7 +5462,7 @@
         <v>5</v>
       </c>
       <c r="B171" s="4">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>238</v>
@@ -5470,7 +5472,7 @@
       </c>
       <c r="E171" s="4"/>
       <c r="F171" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>291</v>
@@ -5479,7 +5481,7 @@
         <v>268</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5487,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="B172" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>238</v>
@@ -5497,7 +5499,7 @@
       </c>
       <c r="E172" s="4"/>
       <c r="F172" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>291</v>
@@ -5506,7 +5508,7 @@
         <v>268</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5514,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="B173" s="4">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>238</v>
@@ -5524,7 +5526,7 @@
       </c>
       <c r="E173" s="4"/>
       <c r="F173" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>291</v>
@@ -5533,7 +5535,7 @@
         <v>268</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5541,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="4">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>238</v>
@@ -5551,7 +5553,7 @@
       </c>
       <c r="E174" s="4"/>
       <c r="F174" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>291</v>
@@ -5560,7 +5562,7 @@
         <v>268</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5568,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="B175" s="4">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>238</v>
@@ -5578,7 +5580,7 @@
       </c>
       <c r="E175" s="4"/>
       <c r="F175" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>291</v>
@@ -5586,8 +5588,8 @@
       <c r="H175" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I175" s="11" t="s">
-        <v>280</v>
+      <c r="I175" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5595,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="4">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>238</v>
@@ -5605,7 +5607,7 @@
       </c>
       <c r="E176" s="4"/>
       <c r="F176" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>291</v>
@@ -5614,7 +5616,7 @@
         <v>268</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5622,7 +5624,7 @@
         <v>5</v>
       </c>
       <c r="B177" s="4">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>238</v>
@@ -5632,7 +5634,7 @@
       </c>
       <c r="E177" s="4"/>
       <c r="F177" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>291</v>
@@ -5640,8 +5642,8 @@
       <c r="H177" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I177" s="4" t="s">
-        <v>282</v>
+      <c r="I177" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5649,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="4">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>238</v>
@@ -5659,7 +5661,7 @@
       </c>
       <c r="E178" s="4"/>
       <c r="F178" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>291</v>
@@ -5668,7 +5670,7 @@
         <v>268</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5676,7 +5678,7 @@
         <v>5</v>
       </c>
       <c r="B179" s="4">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>238</v>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="E179" s="4"/>
       <c r="F179" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>291</v>
@@ -5695,7 +5697,7 @@
         <v>268</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5703,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="4">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>238</v>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="E180" s="4"/>
       <c r="F180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>291</v>
@@ -5722,7 +5724,7 @@
         <v>268</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5730,7 +5732,7 @@
         <v>5</v>
       </c>
       <c r="B181" s="4">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>238</v>
@@ -5740,7 +5742,7 @@
       </c>
       <c r="E181" s="4"/>
       <c r="F181" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>291</v>
@@ -5749,7 +5751,7 @@
         <v>268</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5757,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="B182" s="4">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>238</v>
@@ -5767,7 +5769,7 @@
       </c>
       <c r="E182" s="4"/>
       <c r="F182" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>291</v>
@@ -5776,7 +5778,7 @@
         <v>268</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5784,7 +5786,7 @@
         <v>5</v>
       </c>
       <c r="B183" s="4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>238</v>
@@ -5794,7 +5796,7 @@
       </c>
       <c r="E183" s="4"/>
       <c r="F183" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>291</v>
@@ -5803,7 +5805,7 @@
         <v>268</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5811,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="B184" s="4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>238</v>
@@ -5821,16 +5823,16 @@
       </c>
       <c r="E184" s="4"/>
       <c r="F184" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5838,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="B185" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>238</v>
@@ -5848,27 +5850,76 @@
       </c>
       <c r="E185" s="4"/>
       <c r="F185" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>268</v>
       </c>
       <c r="I185" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" t="s">
+        <v>306</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="F187" t="s">
+        <v>307</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I187" s="4" t="s">
         <v>290</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I157" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2014"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I154">
-      <sortCondition ref="B1:B156"/>
+  <autoFilter ref="A1:I187" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I156">
+      <sortCondition ref="B1:B158"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I146">
@@ -5906,10 +5957,10 @@
     <hyperlink ref="I24" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
     <hyperlink ref="I83" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
     <hyperlink ref="I135" r:id="rId11" xr:uid="{FA8A1007-708D-DF45-A09D-78C317607EA1}"/>
-    <hyperlink ref="I153" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
-    <hyperlink ref="I154" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
-    <hyperlink ref="I159" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
-    <hyperlink ref="I175" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
+    <hyperlink ref="I155" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
+    <hyperlink ref="I156" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
+    <hyperlink ref="I161" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
+    <hyperlink ref="I177" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C502CDB-521C-0E43-98DD-20FC01B47F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051464F-6DC6-D840-9EAE-A4269DC3BFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="900" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$I$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="323">
   <si>
     <t>file_name</t>
   </si>
@@ -292,9 +292,6 @@
     <t>2022hc</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2022/v1/2022emissions/nonroad_inventory_2022hc_17jul2024.zip</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2021/2021emissions/onroad_emissions_SMOKE-MOVES_FF10_2021hb_26mar2024.zip</t>
   </si>
   <si>
@@ -997,10 +994,22 @@
     <t>2022hd</t>
   </si>
   <si>
-    <t>https://gaftp.epa.gov/Air/emismod/2022/v2/2022emissions/draft/2022hd_onroad_SMOKE-MOVES_inventory_19jun2025.zip</t>
-  </si>
-  <si>
     <t>https://gaftp.epa.gov/Air/emismod/2022/v2/reports/2022v2_emissions_docn.pdf</t>
+  </si>
+  <si>
+    <t>_transportation/data-raw/epa/air_emissions_modeling/2022v2</t>
+  </si>
+  <si>
+    <t>2022he</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v2/2022emissions/2022he_onroad_SMOKE-MOVES_inventory_19jun2025.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v2/2022emissions/2022he_nonroad_inventory_26aug2025.zip</t>
+  </si>
+  <si>
+    <t>https://epa-2022-modeling-platform.s3.amazonaws.com/emis/2022v2/2022he_cb6_22m/moves_eftables/st27_2022he_eftables_caps.zip</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="H135" zoomScale="123" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1610,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1632,7 +1641,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="6"/>
@@ -1656,7 +1665,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>66</v>
@@ -1678,7 +1687,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1691,19 +1700,19 @@
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1721,11 +1730,11 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>68</v>
@@ -1745,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1763,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -1785,7 +1794,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>64</v>
@@ -1799,17 +1808,17 @@
         <v>2002</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1829,7 +1838,7 @@
         <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>69</v>
@@ -1843,19 +1852,19 @@
         <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1878,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>17</v>
@@ -1892,13 +1901,13 @@
         <v>2003</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -1916,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1934,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -1946,13 +1955,13 @@
         <v>2004</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1970,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1988,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -2006,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2023,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -2045,7 +2054,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I22" t="s">
         <v>62</v>
@@ -2059,20 +2068,20 @@
         <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2089,13 +2098,13 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>70</v>
@@ -2115,13 +2124,13 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I25" t="s">
         <v>71</v>
@@ -2135,19 +2144,19 @@
         <v>2005</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2170,7 +2179,7 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>21</v>
@@ -2184,13 +2193,13 @@
         <v>2006</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -2208,7 +2217,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -2226,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2237,13 +2246,13 @@
         <v>2007</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -2261,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -2279,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2296,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2313,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -2335,7 +2344,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
         <v>61</v>
@@ -2349,17 +2358,17 @@
         <v>2008</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2379,7 +2388,7 @@
         <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
@@ -2399,14 +2408,14 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2417,20 +2426,20 @@
         <v>2008</v>
       </c>
       <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
         <v>171</v>
       </c>
-      <c r="D40" t="s">
-        <v>172</v>
-      </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2441,22 +2450,22 @@
         <v>2008</v>
       </c>
       <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
         <v>124</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" t="s">
         <v>125</v>
-      </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2467,22 +2476,22 @@
         <v>2008</v>
       </c>
       <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
         <v>124</v>
       </c>
-      <c r="D42" t="s">
-        <v>125</v>
-      </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2493,22 +2502,22 @@
         <v>2008</v>
       </c>
       <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
         <v>124</v>
       </c>
-      <c r="D43" t="s">
-        <v>125</v>
-      </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2528,10 +2537,10 @@
         <v>60</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2542,19 +2551,19 @@
         <v>2008</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2577,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
@@ -2591,13 +2600,13 @@
         <v>2009</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -2615,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -2633,7 +2642,7 @@
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2644,13 +2653,13 @@
         <v>2010</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -2668,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51" s="1"/>
     </row>
@@ -2686,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2706,7 +2715,7 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
         <v>53</v>
@@ -2726,16 +2735,16 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2752,16 +2761,16 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2784,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I56" t="s">
         <v>57</v>
@@ -2798,20 +2807,20 @@
         <v>2011</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,7 +2843,7 @@
         <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I58" t="s">
         <v>54</v>
@@ -2854,14 +2863,14 @@
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2878,14 +2887,14 @@
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2896,20 +2905,20 @@
         <v>2011</v>
       </c>
       <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
         <v>171</v>
       </c>
-      <c r="D61" t="s">
-        <v>172</v>
-      </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2920,22 +2929,22 @@
         <v>2011</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" t="s">
         <v>118</v>
-      </c>
-      <c r="G62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2946,22 +2955,22 @@
         <v>2011</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" t="s">
         <v>121</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I63" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,19 +2981,19 @@
         <v>2011</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3001,13 +3010,13 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3030,7 +3039,7 @@
         <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I66" t="s">
         <v>32</v>
@@ -3050,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3067,7 +3076,7 @@
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68" s="1"/>
     </row>
@@ -3079,13 +3088,13 @@
         <v>2012</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H69" s="1"/>
     </row>
@@ -3103,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" s="1"/>
     </row>
@@ -3121,7 +3130,7 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3138,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3157,7 +3166,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="4"/>
@@ -3176,7 +3185,7 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H74" s="1"/>
     </row>
@@ -3194,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3205,13 +3214,13 @@
         <v>2013</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H76" s="1"/>
     </row>
@@ -3223,22 +3232,22 @@
         <v>2011</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3249,19 +3258,19 @@
         <v>2011</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3272,16 +3281,16 @@
         <v>2011</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3299,14 +3308,14 @@
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3328,7 +3337,7 @@
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>39</v>
@@ -3349,14 +3358,14 @@
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3374,14 +3383,14 @@
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3392,15 +3401,15 @@
         <v>2014</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="4"/>
@@ -3413,21 +3422,21 @@
         <v>2014</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3451,7 +3460,7 @@
         <v>29</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>33</v>
@@ -3465,21 +3474,21 @@
         <v>2014</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3490,21 +3499,21 @@
         <v>2014</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3522,14 +3531,14 @@
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3549,7 +3558,7 @@
         <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I90" t="s">
         <v>50</v>
@@ -3572,13 +3581,13 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3598,7 +3607,7 @@
         <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
@@ -3622,7 +3631,7 @@
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" t="s">
         <v>48</v>
@@ -3642,7 +3651,7 @@
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="3"/>
@@ -3655,17 +3664,17 @@
         <v>2015</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3682,13 +3691,13 @@
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3708,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -3722,20 +3731,20 @@
         <v>2016</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3752,11 +3761,11 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
@@ -3770,17 +3779,17 @@
         <v>2016</v>
       </c>
       <c r="C100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3800,10 +3809,10 @@
         <v>13</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3823,7 +3832,7 @@
         <v>13</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -3843,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H103" s="1"/>
     </row>
@@ -3865,7 +3874,7 @@
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
@@ -3879,20 +3888,20 @@
         <v>2017</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -3903,19 +3912,19 @@
         <v>2017</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -3935,10 +3944,10 @@
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -3961,7 +3970,7 @@
         <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I108" t="s">
         <v>34</v>
@@ -3975,20 +3984,20 @@
         <v>2017</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4008,10 +4017,10 @@
         <v>76</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I110" t="s">
         <v>75</v>
@@ -4025,20 +4034,20 @@
         <v>2017</v>
       </c>
       <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" t="s">
         <v>171</v>
       </c>
-      <c r="D111" t="s">
-        <v>172</v>
-      </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4055,13 +4064,13 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4081,10 +4090,10 @@
         <v>76</v>
       </c>
       <c r="G113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I113" t="s">
         <v>74</v>
@@ -4104,13 +4113,13 @@
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4127,10 +4136,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I115" t="s">
         <v>11</v>
@@ -4144,17 +4153,17 @@
         <v>2018</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4175,7 +4184,7 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I117" t="s">
         <v>45</v>
@@ -4189,20 +4198,20 @@
         <v>2018</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4213,20 +4222,20 @@
         <v>2018</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4243,13 +4252,13 @@
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4269,7 +4278,7 @@
         <v>41</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I121" t="s">
         <v>10</v>
@@ -4283,17 +4292,17 @@
         <v>2019</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4304,20 +4313,20 @@
         <v>2019</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4334,14 +4343,14 @@
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4358,13 +4367,13 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4384,7 +4393,7 @@
         <v>36</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>8</v>
@@ -4398,13 +4407,13 @@
         <v>2020</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -4426,7 +4435,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -4440,20 +4449,20 @@
         <v>2020</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4464,20 +4473,20 @@
         <v>2020</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4498,7 +4507,7 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I131" t="s">
         <v>78</v>
@@ -4512,17 +4521,17 @@
         <v>2020</v>
       </c>
       <c r="C132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" t="s">
         <v>171</v>
-      </c>
-      <c r="D132" t="s">
-        <v>172</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4539,13 +4548,13 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4556,19 +4565,19 @@
         <v>2020</v>
       </c>
       <c r="C134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I134" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4579,19 +4588,19 @@
         <v>2020</v>
       </c>
       <c r="C135" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4611,7 +4620,7 @@
         <v>77</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I136" t="s">
         <v>73</v>
@@ -4634,10 +4643,10 @@
         <v>80</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4659,10 +4668,10 @@
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4673,17 +4682,17 @@
         <v>2021</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4704,7 +4713,7 @@
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I140" t="s">
         <v>79</v>
@@ -4718,20 +4727,20 @@
         <v>2021</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F141" t="s">
         <v>80</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4751,10 +4760,10 @@
         <v>82</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4776,7 +4785,7 @@
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>81</v>
@@ -4790,17 +4799,17 @@
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>83</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4836,20 +4845,20 @@
         <v>2022</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F146" t="s">
         <v>82</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4860,20 +4869,20 @@
         <v>2022</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="10" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="I147" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4890,66 +4899,66 @@
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="10" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="I148" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B149">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C149" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>110</v>
-      </c>
-      <c r="G149" t="s">
-        <v>120</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>246</v>
+        <v>319</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I149" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B150">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C150" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>110</v>
-      </c>
-      <c r="G150" t="s">
-        <v>121</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>245</v>
+        <v>319</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I150" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4960,69 +4969,71 @@
         <v>2017</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G151" t="s">
+        <v>119</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I151" t="s">
-        <v>242</v>
+        <v>220</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" t="s">
         <v>72</v>
       </c>
-      <c r="B152" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" s="5"/>
+      <c r="B152">
+        <v>2017</v>
+      </c>
+      <c r="C152" t="s">
+        <v>237</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>109</v>
+      </c>
+      <c r="G152" t="s">
+        <v>120</v>
+      </c>
       <c r="H152" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I152" s="4" t="s">
-        <v>174</v>
+      <c r="I152" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" t="s">
         <v>72</v>
       </c>
-      <c r="B153" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G153" s="4"/>
+      <c r="B153">
+        <v>2017</v>
+      </c>
+      <c r="C153" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>109</v>
+      </c>
       <c r="H153" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I153" s="4" t="s">
-        <v>104</v>
+      <c r="I153" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5033,21 +5044,21 @@
         <v>2014</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G154" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="G154" s="5"/>
       <c r="H154" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5058,21 +5069,21 @@
         <v>2014</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>241</v>
+        <v>219</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5083,67 +5094,71 @@
         <v>2014</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I156" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G157" s="4"/>
+      <c r="H157" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I157" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B157">
-        <v>2008</v>
-      </c>
-      <c r="C157" t="s">
-        <v>238</v>
-      </c>
-      <c r="D157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>60</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I157" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158">
-        <v>2008</v>
-      </c>
-      <c r="C158" t="s">
-        <v>238</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="B158" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F158" t="s">
-        <v>60</v>
-      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G158" s="4"/>
       <c r="H158" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I158" t="s">
-        <v>244</v>
+        <v>219</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5151,156 +5166,152 @@
         <v>72</v>
       </c>
       <c r="B159">
+        <v>2008</v>
+      </c>
+      <c r="C159" t="s">
+        <v>237</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>60</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I159" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>72</v>
+      </c>
+      <c r="B160">
+        <v>2008</v>
+      </c>
+      <c r="C160" t="s">
+        <v>237</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>60</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I160" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>72</v>
+      </c>
+      <c r="B161">
         <v>2017</v>
       </c>
-      <c r="C159" t="s">
-        <v>47</v>
-      </c>
-      <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>110</v>
-      </c>
-      <c r="G159" t="s">
-        <v>254</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I159" t="s">
+      <c r="C161" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>109</v>
+      </c>
+      <c r="G161" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I161" s="11" t="s">
-        <v>258</v>
+      <c r="I161" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B162" s="4">
         <v>2014</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B163" s="4">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G163" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H163" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>261</v>
+        <v>219</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B164" s="4">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G164" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H164" s="5" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5308,24 +5319,24 @@
         <v>5</v>
       </c>
       <c r="B165" s="4">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5333,24 +5344,24 @@
         <v>5</v>
       </c>
       <c r="B166" s="4">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5358,24 +5369,24 @@
         <v>5</v>
       </c>
       <c r="B167" s="4">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5383,24 +5394,24 @@
         <v>5</v>
       </c>
       <c r="B168" s="4">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5408,26 +5419,24 @@
         <v>5</v>
       </c>
       <c r="B169" s="4">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G169" s="4"/>
       <c r="H169" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5435,26 +5444,24 @@
         <v>5</v>
       </c>
       <c r="B170" s="4">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E170" s="4"/>
-      <c r="F170" t="s">
-        <v>308</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="F170" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G170" s="4"/>
       <c r="H170" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5462,26 +5469,26 @@
         <v>5</v>
       </c>
       <c r="B171" s="4">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="4"/>
-      <c r="F171" t="s">
-        <v>292</v>
+      <c r="F171" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5489,26 +5496,26 @@
         <v>5</v>
       </c>
       <c r="B172" s="4">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5516,26 +5523,26 @@
         <v>5</v>
       </c>
       <c r="B173" s="4">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5543,26 +5550,26 @@
         <v>5</v>
       </c>
       <c r="B174" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5570,26 +5577,26 @@
         <v>5</v>
       </c>
       <c r="B175" s="4">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5597,26 +5604,26 @@
         <v>5</v>
       </c>
       <c r="B176" s="4">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5624,26 +5631,26 @@
         <v>5</v>
       </c>
       <c r="B177" s="4">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>280</v>
+        <v>267</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5651,26 +5658,26 @@
         <v>5</v>
       </c>
       <c r="B178" s="4">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5678,26 +5685,26 @@
         <v>5</v>
       </c>
       <c r="B179" s="4">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
+      </c>
+      <c r="I179" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5705,26 +5712,26 @@
         <v>5</v>
       </c>
       <c r="B180" s="4">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5732,26 +5739,26 @@
         <v>5</v>
       </c>
       <c r="B181" s="4">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5759,26 +5766,26 @@
         <v>5</v>
       </c>
       <c r="B182" s="4">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5786,26 +5793,26 @@
         <v>5</v>
       </c>
       <c r="B183" s="4">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5813,26 +5820,26 @@
         <v>5</v>
       </c>
       <c r="B184" s="4">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5840,26 +5847,26 @@
         <v>5</v>
       </c>
       <c r="B185" s="4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5867,26 +5874,26 @@
         <v>5</v>
       </c>
       <c r="B186" s="4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5894,32 +5901,86 @@
         <v>5</v>
       </c>
       <c r="B187" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" t="s">
+        <v>305</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" t="s">
+        <v>306</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I187" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I156">
-      <sortCondition ref="B1:B158"/>
+  <autoFilter ref="A1:I189" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I158">
+      <sortCondition ref="B1:B160"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I146">
@@ -5957,10 +6018,10 @@
     <hyperlink ref="I24" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
     <hyperlink ref="I83" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
     <hyperlink ref="I135" r:id="rId11" xr:uid="{FA8A1007-708D-DF45-A09D-78C317607EA1}"/>
-    <hyperlink ref="I155" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
-    <hyperlink ref="I156" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
-    <hyperlink ref="I161" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
-    <hyperlink ref="I177" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
+    <hyperlink ref="I157" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
+    <hyperlink ref="I158" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
+    <hyperlink ref="I163" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
+    <hyperlink ref="I179" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5985,7 +6046,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5993,7 +6054,7 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6001,7 +6062,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6009,15 +6070,15 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" t="s">
         <v>270</v>
-      </c>
-      <c r="B5" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6037,37 +6098,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051464F-6DC6-D840-9EAE-A4269DC3BFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F6465-1330-C746-B457-548F40894FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="900" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="328">
   <si>
     <t>file_name</t>
   </si>
@@ -1010,6 +1010,21 @@
   </si>
   <si>
     <t>https://epa-2022-modeling-platform.s3.amazonaws.com/emis/2022v2/2022he_cb6_22m/moves_eftables/st27_2022he_eftables_caps.zip</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/emismod/2022/v2/2022emissions/2022he_point_inventory_25sep2025.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2020/data_summaries/Facility%20Level%20by%20Pollutant.zip</t>
+  </si>
+  <si>
+    <t>Facility Level By Pollutant</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/air/nei/2020/data_summaries/2020nei_facility_process_byregions.zip</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1146,145 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1577,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H135" zoomScale="123" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,42 +2047,58 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>2003</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1937,96 +2106,106 @@
         <v>2003</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18">
+        <v>2003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
         <v>2004</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>2004</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>2005</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -2036,55 +2215,52 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I22" t="s">
-        <v>62</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>2005</v>
-      </c>
-      <c r="C23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2092,22 +2268,13 @@
         <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
-        <v>191</v>
-      </c>
       <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2118,71 +2285,62 @@
         <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>191</v>
-      </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2005</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2005</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" t="s">
-        <v>224</v>
-      </c>
       <c r="I26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>2005</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>224</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>160</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2190,133 +2348,181 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29">
+        <v>2005</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2005</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
         <v>2006</v>
       </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>2006</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>2007</v>
-      </c>
-      <c r="C31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>2007</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>2007</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>2008</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>190</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2326,80 +2532,74 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C36" t="s">
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>2008</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2006</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2007</v>
+      </c>
+      <c r="C38" t="s">
         <v>170</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>2008</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -2407,122 +2607,93 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="F39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" t="s">
-        <v>169</v>
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41">
-        <v>2008</v>
-      </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>2008</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>2008</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>2008</v>
@@ -2531,44 +2702,43 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>217</v>
+      <c r="G44" s="1"/>
+      <c r="H44" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
         <v>2008</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H45" t="s">
-        <v>225</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>197</v>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>2008</v>
@@ -2580,113 +2750,147 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B47">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B49">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>129</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B50">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B51">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B52">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C52" t="s">
         <v>47</v>
@@ -2694,191 +2898,187 @@
       <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" t="s">
-        <v>96</v>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>2011</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
-      </c>
-      <c r="I53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>98</v>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>225</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B55">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56">
+        <v>2008</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="F55" t="s">
-        <v>251</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56">
-        <v>2011</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
       <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" t="s">
-        <v>204</v>
+        <v>60</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57">
-        <v>2011</v>
-      </c>
-      <c r="C57" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>2011</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
+      <c r="A57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" t="s">
-        <v>58</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" t="s">
-        <v>204</v>
-      </c>
-      <c r="I58" t="s">
-        <v>54</v>
+        <v>296</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I59" t="s">
-        <v>122</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -2886,163 +3086,133 @@
       <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="F60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I61" t="s">
-        <v>172</v>
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62">
-        <v>2011</v>
-      </c>
-      <c r="C62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I62" t="s">
-        <v>118</v>
+        <v>297</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>117</v>
-      </c>
-      <c r="G63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>2010</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>2010</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="4">
-        <v>2011</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>232</v>
-      </c>
-      <c r="H64" t="s">
-        <v>226</v>
-      </c>
-      <c r="I64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65">
-        <v>2011</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>117</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66">
-        <v>2011</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
+      <c r="B66" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" t="s">
-        <v>226</v>
-      </c>
-      <c r="I66" t="s">
-        <v>32</v>
+        <v>298</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3050,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
@@ -3058,8 +3228,14 @@
       <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="G67" t="s">
-        <v>96</v>
+      <c r="F67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" t="s">
+        <v>204</v>
+      </c>
+      <c r="I67" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3067,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C68" t="s">
         <v>49</v>
@@ -3075,62 +3251,93 @@
       <c r="D68" t="s">
         <v>15</v>
       </c>
+      <c r="F68" t="s">
+        <v>251</v>
+      </c>
       <c r="G68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>2011</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>2011</v>
+      </c>
+      <c r="C71" t="s">
         <v>170</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>147</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70">
-        <v>2012</v>
-      </c>
-      <c r="C70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>2012</v>
-      </c>
-      <c r="C71" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>96</v>
+      <c r="F71" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I71" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3138,45 +3345,57 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s">
+        <v>204</v>
+      </c>
+      <c r="I72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2011</v>
+      </c>
+      <c r="C73" t="s">
         <v>49</v>
       </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="4">
-        <v>2013</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="4"/>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C74" t="s">
         <v>47</v>
@@ -3184,45 +3403,66 @@
       <c r="D74" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B76">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H76" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I76" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -3232,45 +3472,45 @@
         <v>2011</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>204</v>
+        <v>120</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="I77" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
         <v>2011</v>
       </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>250</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>204</v>
+      <c r="C78" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
       </c>
       <c r="I78" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3281,313 +3521,281 @@
         <v>2011</v>
       </c>
       <c r="C79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>117</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>2011</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>226</v>
+      </c>
+      <c r="I80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81">
+        <v>2011</v>
+      </c>
+      <c r="C81" t="s">
         <v>237</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" t="s">
+        <v>248</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>2011</v>
+      </c>
+      <c r="C82" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83">
+        <v>2011</v>
+      </c>
+      <c r="C83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F83" t="s">
         <v>96</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" s="4">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="4">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4" t="s">
-        <v>227</v>
+      <c r="F85" t="s">
+        <v>299</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>33</v>
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>2012</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>2012</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="G87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>2012</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>2012</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="G89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
       <c r="B90">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
-      <c r="F90" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" t="s">
-        <v>209</v>
-      </c>
-      <c r="I90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91">
-        <v>2015</v>
-      </c>
-      <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
+      <c r="G90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2012</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4"/>
       <c r="F91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" t="s">
-        <v>192</v>
-      </c>
-      <c r="H91" t="s">
-        <v>209</v>
-      </c>
-      <c r="I91" t="s">
-        <v>164</v>
+        <v>300</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3595,54 +3803,45 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="s">
-        <v>37</v>
-      </c>
-      <c r="H92" t="s">
-        <v>209</v>
-      </c>
-      <c r="I92" t="s">
-        <v>38</v>
+      <c r="G92" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93">
-        <v>2015</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="A93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2013</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
       <c r="B94">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C94" t="s">
         <v>47</v>
@@ -3651,614 +3850,648 @@
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
       <c r="B95">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>2013</v>
+      </c>
+      <c r="C96" t="s">
         <v>170</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>147</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I95" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96">
-        <v>2016</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="G96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2013</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" t="s">
+        <v>300</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" t="s">
-        <v>102</v>
-      </c>
-      <c r="H96" t="s">
-        <v>210</v>
-      </c>
-      <c r="I96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97">
-        <v>2016</v>
-      </c>
-      <c r="C97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s">
-        <v>210</v>
-      </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98">
-        <v>2016</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F98" t="s">
-        <v>142</v>
-      </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99">
-        <v>2016</v>
-      </c>
-      <c r="C99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100">
-        <v>2016</v>
-      </c>
-      <c r="C100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100" t="s">
-        <v>147</v>
-      </c>
-      <c r="G100" s="1"/>
-      <c r="H100" t="s">
-        <v>210</v>
-      </c>
-      <c r="I100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101">
-        <v>2017</v>
-      </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102">
-        <v>2017</v>
-      </c>
-      <c r="C102" t="s">
-        <v>47</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103">
-        <v>2017</v>
-      </c>
-      <c r="C103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104">
-        <v>2017</v>
-      </c>
-      <c r="C104" t="s">
-        <v>47</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" t="s">
-        <v>44</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105">
-        <v>2017</v>
-      </c>
-      <c r="C105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D105" t="s">
-        <v>147</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B106" s="4">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s">
-        <v>235</v>
-      </c>
-      <c r="H106" t="s">
-        <v>228</v>
-      </c>
-      <c r="I106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="B116" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" t="s">
+        <v>301</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>2015</v>
+      </c>
+      <c r="C118" t="s">
         <v>49</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" t="s">
-        <v>228</v>
-      </c>
-      <c r="I107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108">
-        <v>2017</v>
-      </c>
-      <c r="C108" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" t="s">
-        <v>228</v>
-      </c>
-      <c r="I108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>72</v>
-      </c>
-      <c r="B109">
-        <v>2017</v>
-      </c>
-      <c r="C109" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110">
-        <v>2017</v>
-      </c>
-      <c r="C110" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I110" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111">
-        <v>2017</v>
-      </c>
-      <c r="C111" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" t="s">
-        <v>171</v>
-      </c>
-      <c r="F111" t="s">
-        <v>178</v>
-      </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I111" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112">
-        <v>2017</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>2015</v>
+      </c>
+      <c r="C119" t="s">
         <v>49</v>
       </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>109</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I112" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113">
-        <v>2017</v>
-      </c>
-      <c r="C113" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>76</v>
-      </c>
-      <c r="G113" t="s">
-        <v>254</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I113" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114">
-        <v>2018</v>
-      </c>
-      <c r="C114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>193</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115">
-        <v>2018</v>
-      </c>
-      <c r="C115" t="s">
-        <v>47</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>194</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116">
-        <v>2018</v>
-      </c>
-      <c r="C116" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117">
-        <v>2018</v>
-      </c>
-      <c r="C117" t="s">
-        <v>47</v>
-      </c>
-      <c r="D117" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I117" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118">
-        <v>2018</v>
-      </c>
-      <c r="C118" t="s">
-        <v>170</v>
-      </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="F118" t="s">
-        <v>145</v>
-      </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119">
-        <v>2018</v>
-      </c>
-      <c r="C119" t="s">
-        <v>170</v>
-      </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>151</v>
-      </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="8" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>192</v>
+      </c>
+      <c r="H119" t="s">
+        <v>209</v>
       </c>
       <c r="I119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
       <c r="B120">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>213</v>
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
+        <v>209</v>
       </c>
       <c r="I120" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4266,51 +4499,50 @@
         <v>6</v>
       </c>
       <c r="B121">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G121" s="1"/>
       <c r="H121" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
       <c r="B122">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I122" t="s">
-        <v>133</v>
-      </c>
+      <c r="G122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
       <c r="B123">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C123" t="s">
         <v>170</v>
@@ -4318,47 +4550,47 @@
       <c r="D123" t="s">
         <v>147</v>
       </c>
-      <c r="F123" t="s">
-        <v>134</v>
-      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I123" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124">
-        <v>2019</v>
-      </c>
-      <c r="C124" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
+      <c r="A124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="4"/>
       <c r="F124" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I124" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
       <c r="B125">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C125" t="s">
         <v>49</v>
@@ -4367,21 +4599,21 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>214</v>
+        <v>102</v>
+      </c>
+      <c r="H125" t="s">
+        <v>210</v>
       </c>
       <c r="I125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
       <c r="B126">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C126" t="s">
         <v>47</v>
@@ -4390,13 +4622,13 @@
         <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="H126" t="s">
+        <v>210</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4404,7 +4636,7 @@
         <v>6</v>
       </c>
       <c r="B127">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C127" t="s">
         <v>112</v>
@@ -4412,17 +4644,23 @@
       <c r="D127" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H127" s="8"/>
+      <c r="F127" t="s">
+        <v>142</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I127" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
       <c r="B128">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C128" t="s">
         <v>47</v>
@@ -4431,22 +4669,22 @@
         <v>15</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I128" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>6</v>
       </c>
       <c r="B129">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C129" t="s">
         <v>170</v>
@@ -4454,232 +4692,231 @@
       <c r="D129" t="s">
         <v>147</v>
       </c>
-      <c r="F129" t="s">
-        <v>154</v>
-      </c>
       <c r="G129" s="1"/>
-      <c r="H129" s="8" t="s">
-        <v>214</v>
+      <c r="H129" t="s">
+        <v>210</v>
       </c>
       <c r="I129" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>72</v>
-      </c>
-      <c r="B130">
-        <v>2020</v>
-      </c>
-      <c r="C130" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" t="s">
-        <v>15</v>
-      </c>
+      <c r="A130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="4">
+        <v>2016</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="4"/>
       <c r="F130" t="s">
-        <v>116</v>
-      </c>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I130" t="s">
-        <v>115</v>
+        <v>303</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B131">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>77</v>
-      </c>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1" t="s">
-        <v>221</v>
+        <v>13</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="I131" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B132">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D132" t="s">
-        <v>171</v>
-      </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1" t="s">
-        <v>221</v>
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="I132" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B133">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C133" t="s">
         <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>114</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I133" t="s">
-        <v>113</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B134">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
-        <v>114</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>221</v>
+        <v>44</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="I134" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B135">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F135" t="s">
-        <v>114</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136">
-        <v>2020</v>
-      </c>
-      <c r="C136" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
+      </c>
+      <c r="H136" t="s">
+        <v>228</v>
       </c>
       <c r="I136" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137">
-        <v>2021</v>
-      </c>
-      <c r="C137" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>80</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>215</v>
+        <v>26</v>
+      </c>
+      <c r="H137" t="s">
+        <v>228</v>
       </c>
       <c r="I137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G138" s="4"/>
-      <c r="H138" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>83</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>2017</v>
+      </c>
+      <c r="C138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>228</v>
+      </c>
+      <c r="I138" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B139">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C139" t="s">
         <v>112</v>
@@ -4687,68 +4924,73 @@
       <c r="D139" t="s">
         <v>15</v>
       </c>
+      <c r="F139" t="s">
+        <v>111</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I139" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140">
+        <v>2017</v>
+      </c>
+      <c r="C140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="F140" t="s">
-        <v>80</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="H140" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I140" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B141">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C141" t="s">
         <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I141" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B142">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C142" t="s">
         <v>49</v>
@@ -4757,182 +4999,192 @@
         <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>82</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>216</v>
+        <v>109</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="I142" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="4">
-        <v>2022</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>81</v>
+      <c r="A143" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143">
+        <v>2017</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>76</v>
+      </c>
+      <c r="G143" t="s">
+        <v>254</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I143" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B144">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C144" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>109</v>
+      </c>
+      <c r="G144" t="s">
+        <v>119</v>
+      </c>
       <c r="H144" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I144" t="s">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="4">
-        <v>2022</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G145" s="5"/>
+      <c r="A145" t="s">
+        <v>72</v>
+      </c>
+      <c r="B145">
+        <v>2017</v>
+      </c>
+      <c r="C145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>109</v>
+      </c>
+      <c r="G145" t="s">
+        <v>120</v>
+      </c>
       <c r="H145" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>321</v>
+        <v>220</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B146">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D146" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="F146" t="s">
-        <v>82</v>
-      </c>
-      <c r="G146" s="1"/>
+        <v>109</v>
+      </c>
       <c r="H146" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I146" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B147">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D147" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>316</v>
-      </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="10" t="s">
-        <v>318</v>
+        <v>109</v>
+      </c>
+      <c r="G147" t="s">
+        <v>253</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="I147" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148">
-        <v>2022</v>
-      </c>
-      <c r="C148" t="s">
-        <v>47</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>319</v>
-      </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="I148" t="s">
-        <v>320</v>
+      <c r="A148" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149">
-        <v>2022</v>
-      </c>
-      <c r="C149" t="s">
-        <v>49</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
+      <c r="A149" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="4"/>
       <c r="F149" t="s">
-        <v>319</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="I149" t="s">
-        <v>322</v>
+        <v>304</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4940,7 +5192,7 @@
         <v>6</v>
       </c>
       <c r="B150">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C150" t="s">
         <v>49</v>
@@ -4949,76 +5201,65 @@
         <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>319</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>318</v>
+        <v>193</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="I150" t="s">
-        <v>322</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B151">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>109</v>
-      </c>
-      <c r="G151" t="s">
-        <v>119</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>245</v>
+        <v>194</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
-        <v>109</v>
-      </c>
-      <c r="G152" t="s">
-        <v>120</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>244</v>
+        <v>15</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I152" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B153">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C153" t="s">
         <v>47</v>
@@ -5027,218 +5268,212 @@
         <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>109</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>220</v>
+        <v>42</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="I153" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C154" s="4" t="s">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>2018</v>
+      </c>
+      <c r="C154" t="s">
         <v>170</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>173</v>
+      <c r="D154" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" t="s">
+        <v>145</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I154" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B155" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>103</v>
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>2018</v>
+      </c>
+      <c r="C155" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" t="s">
+        <v>147</v>
+      </c>
+      <c r="F155" t="s">
+        <v>151</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I155" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B156" s="4">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="4"/>
-      <c r="F156" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G156" s="4"/>
+      <c r="F156" t="s">
+        <v>305</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H156" s="5" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B157" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G157" s="4"/>
-      <c r="H157" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>240</v>
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>2019</v>
+      </c>
+      <c r="C157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>134</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I157" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G158" s="4"/>
-      <c r="H158" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>239</v>
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>2019</v>
+      </c>
+      <c r="C158" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>41</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I158" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B159">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C159" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>60</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>217</v>
+        <v>15</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I159" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C160" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F160" t="s">
-        <v>60</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>217</v>
+        <v>134</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I160" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B161">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C161" t="s">
         <v>47</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F161" t="s">
-        <v>109</v>
-      </c>
-      <c r="G161" t="s">
-        <v>253</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>220</v>
+        <v>134</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I161" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162" s="4">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>237</v>
@@ -5248,24 +5483,24 @@
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B163" s="4">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>237</v>
@@ -5274,713 +5509,697 @@
         <v>9</v>
       </c>
       <c r="E163" s="4"/>
-      <c r="F163" s="4" t="s">
-        <v>93</v>
+      <c r="F163" t="s">
+        <v>306</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>2020</v>
+      </c>
+      <c r="C164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>136</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I164" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>2020</v>
+      </c>
+      <c r="C165" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>36</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166">
+        <v>2020</v>
+      </c>
+      <c r="C166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H166" s="8"/>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>2020</v>
+      </c>
+      <c r="C167" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I167" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>2020</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" t="s">
+        <v>147</v>
+      </c>
+      <c r="F168" t="s">
+        <v>154</v>
+      </c>
+      <c r="G168" s="1"/>
+      <c r="H168" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I168" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>72</v>
       </c>
-      <c r="B164" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C164" s="4" t="s">
+      <c r="B169">
+        <v>2020</v>
+      </c>
+      <c r="C169" t="s">
+        <v>112</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>116</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>72</v>
+      </c>
+      <c r="B170">
+        <v>2020</v>
+      </c>
+      <c r="C170" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>77</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171">
+        <v>2020</v>
+      </c>
+      <c r="C171" t="s">
+        <v>170</v>
+      </c>
+      <c r="D171" t="s">
+        <v>171</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I171" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172">
+        <v>2020</v>
+      </c>
+      <c r="C172" t="s">
+        <v>49</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>114</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I172" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>72</v>
+      </c>
+      <c r="B173">
+        <v>2020</v>
+      </c>
+      <c r="C173" t="s">
         <v>237</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="4">
-        <v>2002</v>
-      </c>
-      <c r="C165" s="4" t="s">
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>114</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>72</v>
+      </c>
+      <c r="B174">
+        <v>2020</v>
+      </c>
+      <c r="C174" t="s">
         <v>237</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G165" s="4"/>
-      <c r="H165" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="4">
-        <v>2005</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G166" s="4"/>
-      <c r="H166" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="4">
-        <v>2008</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G167" s="4"/>
-      <c r="H167" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="4">
-        <v>2011</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G168" s="4"/>
-      <c r="H168" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="4">
-        <v>2002</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="4"/>
-      <c r="F172" t="s">
-        <v>307</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="4">
-        <v>2003</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="4"/>
-      <c r="F173" t="s">
-        <v>291</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="4">
-        <v>2004</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="4"/>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
       <c r="F174" t="s">
-        <v>292</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H174" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>274</v>
+        <v>114</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="4">
-        <v>2005</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="4"/>
+      <c r="A175" t="s">
+        <v>72</v>
+      </c>
+      <c r="B175">
+        <v>2020</v>
+      </c>
+      <c r="C175" t="s">
+        <v>47</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
       <c r="F175" t="s">
-        <v>293</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H175" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>275</v>
+        <v>77</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I175" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="4">
-        <v>2006</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="4"/>
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>2021</v>
+      </c>
+      <c r="C176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
       <c r="F176" t="s">
-        <v>294</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H176" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>276</v>
+        <v>80</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I176" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" s="4">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="4"/>
-      <c r="F177" t="s">
-        <v>295</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H177" s="5" t="s">
-        <v>267</v>
+      <c r="F177" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>277</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="4">
-        <v>2008</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="4"/>
-      <c r="F178" t="s">
-        <v>296</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H178" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>278</v>
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>2021</v>
+      </c>
+      <c r="C178" t="s">
+        <v>112</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I178" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B179" s="4">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="4"/>
+        <v>15</v>
+      </c>
       <c r="F179" t="s">
-        <v>297</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I179" s="11" t="s">
-        <v>279</v>
+        <v>80</v>
+      </c>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I179" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="4">
-        <v>2010</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="4"/>
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>2021</v>
+      </c>
+      <c r="C180" t="s">
+        <v>170</v>
+      </c>
+      <c r="D180" t="s">
+        <v>147</v>
+      </c>
       <c r="F180" t="s">
-        <v>298</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>280</v>
+        <v>80</v>
+      </c>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I180" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="4">
-        <v>2011</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="4"/>
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>2022</v>
+      </c>
+      <c r="C181" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
       <c r="F181" t="s">
-        <v>299</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>281</v>
+        <v>216</v>
+      </c>
+      <c r="I181" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" s="4">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="4"/>
-      <c r="F182" t="s">
-        <v>300</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="F182" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G182" s="4"/>
       <c r="H182" s="5" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>282</v>
+        <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="4">
-        <v>2013</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="4"/>
-      <c r="F183" t="s">
-        <v>300</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>2022</v>
+      </c>
+      <c r="C183" t="s">
+        <v>112</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="1"/>
       <c r="H183" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>283</v>
+        <v>216</v>
+      </c>
+      <c r="I183" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B184" s="4">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E184" s="4"/>
-      <c r="F184" t="s">
-        <v>301</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="F184" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G184" s="5"/>
       <c r="H184" s="5" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="4">
-        <v>2015</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="4"/>
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>2022</v>
+      </c>
+      <c r="C185" t="s">
+        <v>170</v>
+      </c>
+      <c r="D185" t="s">
+        <v>147</v>
+      </c>
       <c r="F185" t="s">
-        <v>302</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>290</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G185" s="1"/>
       <c r="H185" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>285</v>
+        <v>216</v>
+      </c>
+      <c r="I185" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="4">
-        <v>2016</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="4"/>
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>2022</v>
+      </c>
+      <c r="C186" t="s">
+        <v>170</v>
+      </c>
+      <c r="D186" t="s">
+        <v>147</v>
+      </c>
       <c r="F186" t="s">
-        <v>303</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>286</v>
+        <v>316</v>
+      </c>
+      <c r="G186" s="1"/>
+      <c r="H186" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I186" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="4"/>
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>2022</v>
+      </c>
+      <c r="C187" t="s">
+        <v>47</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
       <c r="F187" t="s">
-        <v>304</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I187" s="4" t="s">
-        <v>287</v>
+        <v>319</v>
+      </c>
+      <c r="G187" s="1"/>
+      <c r="H187" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I187" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="4"/>
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>2022</v>
+      </c>
+      <c r="C188" t="s">
+        <v>49</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
       <c r="F188" t="s">
-        <v>305</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I188" s="4" t="s">
-        <v>288</v>
+        <v>319</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I188" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B189" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="4"/>
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189">
+        <v>2022</v>
+      </c>
+      <c r="C189" t="s">
+        <v>49</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
       <c r="F189" t="s">
-        <v>306</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>289</v>
+        <v>319</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I189" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190">
+        <v>2022</v>
+      </c>
+      <c r="C190" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" t="s">
+        <v>323</v>
+      </c>
+      <c r="F190" t="s">
+        <v>319</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I190" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>72</v>
+      </c>
+      <c r="B191">
+        <v>2020</v>
+      </c>
+      <c r="C191" t="s">
+        <v>47</v>
+      </c>
+      <c r="D191" t="s">
+        <v>323</v>
+      </c>
+      <c r="F191" t="s">
+        <v>326</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I191" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>72</v>
+      </c>
+      <c r="B192">
+        <v>2020</v>
+      </c>
+      <c r="C192" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" t="s">
+        <v>323</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I192" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I189" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:I158">
-      <sortCondition ref="B1:B160"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I189">
+      <sortCondition ref="B1:B189"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I146">
@@ -5989,39 +6208,42 @@
     <sortCondition ref="C2:C146"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D1048576 F191">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"point"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"tsd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"readme"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"mobile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"nonroad"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"onroad"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{3A864FC9-E9A6-9E49-9148-BCE178E64C95}"/>
-    <hyperlink ref="I126" r:id="rId2" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
-    <hyperlink ref="I82" r:id="rId3" xr:uid="{C2E4A6B9-5621-B549-B57E-A831E5A80B44}"/>
-    <hyperlink ref="I55" r:id="rId4" xr:uid="{81E6D9E0-9F41-C14E-A9FE-A54BD14CE8DE}"/>
-    <hyperlink ref="I42" r:id="rId5" xr:uid="{73D76BFE-3329-E24F-BF51-6DE2D7EABDC5}"/>
-    <hyperlink ref="I43" r:id="rId6" xr:uid="{7CD351E3-780B-E34B-A618-1555BF35832E}"/>
+    <hyperlink ref="I165" r:id="rId2" xr:uid="{2EBBCCD4-0AE8-344A-A3EC-2BED21CB47EE}"/>
+    <hyperlink ref="I100" r:id="rId3" xr:uid="{C2E4A6B9-5621-B549-B57E-A831E5A80B44}"/>
+    <hyperlink ref="I69" r:id="rId4" xr:uid="{81E6D9E0-9F41-C14E-A9FE-A54BD14CE8DE}"/>
+    <hyperlink ref="I50" r:id="rId5" xr:uid="{73D76BFE-3329-E24F-BF51-6DE2D7EABDC5}"/>
+    <hyperlink ref="I51" r:id="rId6" xr:uid="{7CD351E3-780B-E34B-A618-1555BF35832E}"/>
     <hyperlink ref="I13" r:id="rId7" xr:uid="{3B0CDB0E-607B-374B-9692-9E56E9B957D9}"/>
-    <hyperlink ref="I27" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
-    <hyperlink ref="I24" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
-    <hyperlink ref="I83" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
-    <hyperlink ref="I135" r:id="rId11" xr:uid="{FA8A1007-708D-DF45-A09D-78C317607EA1}"/>
-    <hyperlink ref="I157" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
-    <hyperlink ref="I158" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
-    <hyperlink ref="I163" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
-    <hyperlink ref="I179" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
+    <hyperlink ref="I31" r:id="rId8" xr:uid="{24B7ED56-E7A5-A74B-A6D0-94A6A953612A}"/>
+    <hyperlink ref="I28" r:id="rId9" xr:uid="{9F3A0EC8-88EF-BA42-B2C4-CD63FAF3743E}"/>
+    <hyperlink ref="I101" r:id="rId10" xr:uid="{89E45E83-4EF9-8B44-AACC-ED2D2E60F75C}"/>
+    <hyperlink ref="I174" r:id="rId11" xr:uid="{FA8A1007-708D-DF45-A09D-78C317607EA1}"/>
+    <hyperlink ref="I111" r:id="rId12" xr:uid="{8AB8E0D9-B2E6-7A4B-B7FD-383AE4C17BF2}"/>
+    <hyperlink ref="I112" r:id="rId13" xr:uid="{6702C906-A8EA-954F-8C17-7147195B6C53}"/>
+    <hyperlink ref="I114" r:id="rId14" xr:uid="{AFDA6783-AFA0-A040-820E-4E25136EB298}"/>
+    <hyperlink ref="I62" r:id="rId15" xr:uid="{DD2C4424-579F-DF41-A73A-7ECFAD2F604F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F6465-1330-C746-B457-548F40894FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59509-7F44-124F-BDA0-BC694638079E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="900" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>

--- a/_transportation/data-raw/epa/epa_downloads.xlsx
+++ b/_transportation/data-raw/epa/epa_downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotenle/Documents/MetC_Locals/Interdivisional/ghg-cprg/_transportation/data-raw/epa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59509-7F44-124F-BDA0-BC694638079E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53FCC88-E2B5-1645-9BA1-FC36B2D09720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="900" windowWidth="30720" windowHeight="17040" xr2:uid="{E3501ACA-8D46-AF4B-AC5D-95BB483C9130}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="329">
   <si>
     <t>file_name</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>https://gaftp.epa.gov/air/nei/2020/data_summaries/2020nei_facility_process_byregions.zip</t>
+  </si>
+  <si>
+    <t>https://gaftp.epa.gov/Air/nei/2008/flat_files/2008NEIv3_POINT_20130206.zip</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1149,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1266,121 +1269,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -1730,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EF959-18DF-BD43-B878-2D065289D72D}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6194,6 +6082,26 @@
       </c>
       <c r="I192" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>72</v>
+      </c>
+      <c r="B193">
+        <v>2008</v>
+      </c>
+      <c r="C193" t="s">
+        <v>47</v>
+      </c>
+      <c r="D193" t="s">
+        <v>323</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I193" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
